--- a/raw_data/20200818_saline/20200818_Sensor3_Test_49.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_49.xlsx
@@ -1,736 +1,1152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11825C6B-5B61-4B08-BA9A-FBAED4BB95DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>43759.070906</v>
+        <v>43759.070906000001</v>
       </c>
       <c r="B2" s="1">
-        <v>12.155297</v>
+        <v>12.155296999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1155.340000</v>
+        <v>1155.3399999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-231.847000</v>
+        <v>-231.84700000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>43769.169448</v>
+        <v>43769.169448000001</v>
       </c>
       <c r="G2" s="1">
-        <v>12.158103</v>
+        <v>12.158103000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1173.740000</v>
+        <v>1173.74</v>
       </c>
       <c r="I2" s="1">
-        <v>-196.584000</v>
+        <v>-196.584</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>43779.637984</v>
+        <v>43779.637984000001</v>
       </c>
       <c r="L2" s="1">
         <v>12.161011</v>
       </c>
       <c r="M2" s="1">
-        <v>1197.870000</v>
+        <v>1197.8699999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-140.290000</v>
+        <v>-140.29</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>43790.457217</v>
+        <v>43790.457217000003</v>
       </c>
       <c r="Q2" s="1">
         <v>12.164016</v>
       </c>
       <c r="R2" s="1">
-        <v>1206.000000</v>
+        <v>1206</v>
       </c>
       <c r="S2" s="1">
-        <v>-121.368000</v>
+        <v>-121.36799999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>43800.991252</v>
       </c>
       <c r="V2" s="1">
-        <v>12.166942</v>
+        <v>12.166942000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-103.458000</v>
+        <v>-103.458</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>43811.404789</v>
       </c>
       <c r="AA2" s="1">
-        <v>12.169835</v>
+        <v>12.169835000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1222.400000</v>
+        <v>1222.4000000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-88.836300</v>
+        <v>-88.836299999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>43821.609944</v>
+        <v>43821.609944000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>12.172669</v>
+        <v>12.172669000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1227.650000</v>
+        <v>1227.6500000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.254000</v>
+        <v>-85.254000000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>43832.378089</v>
+        <v>43832.378088999998</v>
       </c>
       <c r="AK2" s="1">
         <v>12.175661</v>
       </c>
       <c r="AL2" s="1">
-        <v>1235.330000</v>
+        <v>1235.33</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.403300</v>
+        <v>-89.403300000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>43842.982060</v>
+        <v>43842.982060000002</v>
       </c>
       <c r="AP2" s="1">
         <v>12.178606</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1243.500000</v>
+        <v>1243.5</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.785000</v>
+        <v>-101.785</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>43853.727422</v>
+        <v>43853.727422000004</v>
       </c>
       <c r="AU2" s="1">
-        <v>12.181591</v>
+        <v>12.181590999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1253.600000</v>
+        <v>1253.5999999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.512000</v>
+        <v>-121.512</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>43864.791152</v>
+        <v>43864.791151999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>12.184664</v>
       </c>
       <c r="BA2" s="1">
-        <v>1262.080000</v>
+        <v>1262.08</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.314000</v>
+        <v>-139.31399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>43875.384208</v>
+        <v>43875.384208000003</v>
       </c>
       <c r="BE2" s="1">
         <v>12.187607</v>
       </c>
       <c r="BF2" s="1">
-        <v>1302.310000</v>
+        <v>1302.31</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.542000</v>
+        <v>-222.542</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>43886.425682</v>
+        <v>43886.425682000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>12.190674</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.428000</v>
+        <v>-361.428</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>43897.836148</v>
+        <v>43897.836148000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>12.193843</v>
+        <v>12.193842999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1486.830000</v>
+        <v>1486.83</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-588.178000</v>
+        <v>-588.178</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>43908.195062</v>
+        <v>43908.195061999999</v>
       </c>
       <c r="BT2" s="1">
         <v>12.196721</v>
       </c>
       <c r="BU2" s="1">
-        <v>1619.440000</v>
+        <v>1619.44</v>
       </c>
       <c r="BV2" s="1">
-        <v>-845.150000</v>
+        <v>-845.15</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>43918.572361</v>
+        <v>43918.572360999999</v>
       </c>
       <c r="BY2" s="1">
         <v>12.199603</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1773.610000</v>
+        <v>1773.61</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1124.690000</v>
+        <v>-1124.69</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>43929.522576</v>
+        <v>43929.522576000003</v>
       </c>
       <c r="CD2" s="1">
         <v>12.202645</v>
       </c>
       <c r="CE2" s="1">
-        <v>2196.970000</v>
+        <v>2196.9699999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1804.440000</v>
+        <v>-1804.44</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>43759.433482</v>
       </c>
@@ -738,405 +1154,405 @@
         <v>12.155398</v>
       </c>
       <c r="C3" s="1">
-        <v>1155.790000</v>
+        <v>1155.79</v>
       </c>
       <c r="D3" s="1">
-        <v>-231.937000</v>
+        <v>-231.93700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>43769.892092</v>
+        <v>43769.892092000002</v>
       </c>
       <c r="G3" s="1">
         <v>12.158303</v>
       </c>
       <c r="H3" s="1">
-        <v>1173.690000</v>
+        <v>1173.69</v>
       </c>
       <c r="I3" s="1">
-        <v>-196.630000</v>
+        <v>-196.63</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>43780.353215</v>
+        <v>43780.353215000003</v>
       </c>
       <c r="L3" s="1">
-        <v>12.161209</v>
+        <v>12.161208999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1198.250000</v>
+        <v>1198.25</v>
       </c>
       <c r="N3" s="1">
-        <v>-140.183000</v>
+        <v>-140.18299999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>43790.803425</v>
+        <v>43790.803424999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>12.164112</v>
+        <v>12.164111999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1205.970000</v>
+        <v>1205.97</v>
       </c>
       <c r="S3" s="1">
-        <v>-121.312000</v>
+        <v>-121.312</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>43801.335970</v>
+        <v>43801.33597</v>
       </c>
       <c r="V3" s="1">
         <v>12.167038</v>
       </c>
       <c r="W3" s="1">
-        <v>1213.820000</v>
+        <v>1213.82</v>
       </c>
       <c r="X3" s="1">
-        <v>-103.405000</v>
+        <v>-103.405</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>43811.764885</v>
+        <v>43811.764884999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>12.169935</v>
+        <v>12.169935000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1222.380000</v>
+        <v>1222.3800000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-88.892900</v>
+        <v>-88.892899999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>43822.305831</v>
+        <v>43822.305830999998</v>
       </c>
       <c r="AF3" s="1">
         <v>12.172863</v>
       </c>
       <c r="AG3" s="1">
-        <v>1227.670000</v>
+        <v>1227.67</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.267000</v>
+        <v>-85.266999999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>43832.800681</v>
+        <v>43832.800681000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>12.175778</v>
+        <v>12.175777999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1235.300000</v>
+        <v>1235.3</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.422100</v>
+        <v>-89.4221</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>43843.399721</v>
+        <v>43843.399721000002</v>
       </c>
       <c r="AP3" s="1">
         <v>12.178722</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1243.480000</v>
+        <v>1243.48</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.767000</v>
+        <v>-101.767</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>43854.095918</v>
+        <v>43854.095917999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.181693</v>
+        <v>12.181692999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.527000</v>
+        <v>-121.527</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>43865.153267</v>
+        <v>43865.153267000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>12.184765</v>
+        <v>12.184765000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.275000</v>
+        <v>-139.27500000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>43875.769631</v>
+        <v>43875.769631000003</v>
       </c>
       <c r="BE3" s="1">
         <v>12.187714</v>
       </c>
       <c r="BF3" s="1">
-        <v>1302.280000</v>
+        <v>1302.28</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.535000</v>
+        <v>-222.535</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>43886.857171</v>
+        <v>43886.857171000003</v>
       </c>
       <c r="BJ3" s="1">
         <v>12.190794</v>
       </c>
       <c r="BK3" s="1">
-        <v>1371.970000</v>
+        <v>1371.97</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.419000</v>
+        <v>-361.41899999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>43897.951717</v>
+        <v>43897.951717000004</v>
       </c>
       <c r="BO3" s="1">
         <v>12.193875</v>
       </c>
       <c r="BP3" s="1">
-        <v>1486.850000</v>
+        <v>1486.85</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-588.256000</v>
+        <v>-588.25599999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>43908.336917</v>
+        <v>43908.336917000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>12.196760</v>
+        <v>12.196759999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1619.370000</v>
+        <v>1619.37</v>
       </c>
       <c r="BV3" s="1">
-        <v>-845.212000</v>
+        <v>-845.21199999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>43919.059432</v>
+        <v>43919.059432000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>12.199739</v>
+        <v>12.199738999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1773.560000</v>
+        <v>1773.56</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1124.590000</v>
+        <v>-1124.5899999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>43930.108840</v>
+        <v>43930.108840000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>12.202808</v>
+        <v>12.202807999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2198.390000</v>
+        <v>2198.39</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1802.830000</v>
+        <v>-1802.83</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>43760.116937</v>
+        <v>43760.116936999999</v>
       </c>
       <c r="B4" s="1">
         <v>12.155588</v>
       </c>
       <c r="C4" s="1">
-        <v>1155.750000</v>
+        <v>1155.75</v>
       </c>
       <c r="D4" s="1">
-        <v>-232.039000</v>
+        <v>-232.03899999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>43770.236316</v>
+        <v>43770.236316000002</v>
       </c>
       <c r="G4" s="1">
-        <v>12.158399</v>
+        <v>12.158398999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1173.400000</v>
+        <v>1173.4000000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-196.517000</v>
+        <v>-196.517</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>43780.700941</v>
+        <v>43780.700941000003</v>
       </c>
       <c r="L4" s="1">
         <v>12.161306</v>
       </c>
       <c r="M4" s="1">
-        <v>1198.040000</v>
+        <v>1198.04</v>
       </c>
       <c r="N4" s="1">
-        <v>-140.182000</v>
+        <v>-140.18199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>43791.152113</v>
+        <v>43791.152112999996</v>
       </c>
       <c r="Q4" s="1">
         <v>12.164209</v>
       </c>
       <c r="R4" s="1">
-        <v>1205.950000</v>
+        <v>1205.95</v>
       </c>
       <c r="S4" s="1">
-        <v>-121.248000</v>
+        <v>-121.248</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>43801.990193</v>
+        <v>43801.990192999998</v>
       </c>
       <c r="V4" s="1">
-        <v>12.167219</v>
+        <v>12.167218999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1214.000000</v>
+        <v>1214</v>
       </c>
       <c r="X4" s="1">
-        <v>-103.165000</v>
+        <v>-103.16500000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>43812.440899</v>
+        <v>43812.440899000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>12.170122</v>
+        <v>12.170121999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1222.450000</v>
+        <v>1222.45</v>
       </c>
       <c r="AC4" s="1">
-        <v>-88.861300</v>
+        <v>-88.8613</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>43822.677201</v>
+        <v>43822.677200999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>12.172966</v>
+        <v>12.172966000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1227.620000</v>
+        <v>1227.6199999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.330500</v>
+        <v>-85.330500000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>43833.149400</v>
+        <v>43833.149400000002</v>
       </c>
       <c r="AK4" s="1">
         <v>12.175875</v>
       </c>
       <c r="AL4" s="1">
-        <v>1235.270000</v>
+        <v>1235.27</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.385600</v>
+        <v>-89.385599999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>43843.763786</v>
+        <v>43843.763786000003</v>
       </c>
       <c r="AP4" s="1">
         <v>12.178823</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1243.500000</v>
+        <v>1243.5</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.779000</v>
+        <v>-101.779</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>43854.460477</v>
+        <v>43854.460477000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>12.181795</v>
+        <v>12.181794999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1253.590000</v>
+        <v>1253.5899999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.508000</v>
+        <v>-121.508</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>43865.576813</v>
@@ -1145,527 +1561,527 @@
         <v>12.184882</v>
       </c>
       <c r="BA4" s="1">
-        <v>1262.090000</v>
+        <v>1262.0899999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.278000</v>
+        <v>-139.27799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>43876.190245</v>
+        <v>43876.190244999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>12.187831</v>
+        <v>12.187830999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1302.280000</v>
+        <v>1302.28</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.485000</v>
+        <v>-222.48500000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>43887.199905</v>
+        <v>43887.199905000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>12.190889</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.040000</v>
+        <v>1372.04</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.349000</v>
+        <v>-361.34899999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>43898.378274</v>
+        <v>43898.378274000002</v>
       </c>
       <c r="BO4" s="1">
         <v>12.193994</v>
       </c>
       <c r="BP4" s="1">
-        <v>1486.800000</v>
+        <v>1486.8</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-588.217000</v>
+        <v>-588.21699999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>43908.754548</v>
+        <v>43908.754547999997</v>
       </c>
       <c r="BT4" s="1">
         <v>12.196876</v>
       </c>
       <c r="BU4" s="1">
-        <v>1619.390000</v>
+        <v>1619.39</v>
       </c>
       <c r="BV4" s="1">
-        <v>-845.230000</v>
+        <v>-845.23</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>43919.506822</v>
+        <v>43919.506822000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.199863</v>
+        <v>12.199863000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1773.580000</v>
+        <v>1773.58</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1124.570000</v>
+        <v>-1124.57</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>43930.642009</v>
+        <v>43930.642009000003</v>
       </c>
       <c r="CD4" s="1">
         <v>12.202956</v>
       </c>
       <c r="CE4" s="1">
-        <v>2196.460000</v>
+        <v>2196.46</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1804.610000</v>
+        <v>-1804.61</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>43760.459672</v>
+        <v>43760.459671999997</v>
       </c>
       <c r="B5" s="1">
         <v>12.155683</v>
       </c>
       <c r="C5" s="1">
-        <v>1155.920000</v>
+        <v>1155.92</v>
       </c>
       <c r="D5" s="1">
-        <v>-231.956000</v>
+        <v>-231.95599999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>43770.579579</v>
+        <v>43770.579578999997</v>
       </c>
       <c r="G5" s="1">
-        <v>12.158494</v>
+        <v>12.158493999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1173.340000</v>
+        <v>1173.3399999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-196.641000</v>
+        <v>-196.64099999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>43781.056541</v>
+        <v>43781.056540999998</v>
       </c>
       <c r="L5" s="1">
         <v>12.161405</v>
       </c>
       <c r="M5" s="1">
-        <v>1198.110000</v>
+        <v>1198.1099999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-140.215000</v>
+        <v>-140.215</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>43791.816752</v>
+        <v>43791.816751999999</v>
       </c>
       <c r="Q5" s="1">
         <v>12.164394</v>
       </c>
       <c r="R5" s="1">
-        <v>1205.990000</v>
+        <v>1205.99</v>
       </c>
       <c r="S5" s="1">
-        <v>-121.284000</v>
+        <v>-121.28400000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>43802.368145</v>
       </c>
       <c r="V5" s="1">
-        <v>12.167324</v>
+        <v>12.167324000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-103.494000</v>
+        <v>-103.494</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>43812.808435</v>
+        <v>43812.808434999999</v>
       </c>
       <c r="AA5" s="1">
         <v>12.170225</v>
       </c>
       <c r="AB5" s="1">
-        <v>1222.290000</v>
+        <v>1222.29</v>
       </c>
       <c r="AC5" s="1">
-        <v>-88.849700</v>
+        <v>-88.849699999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>43823.022086</v>
+        <v>43823.022085999997</v>
       </c>
       <c r="AF5" s="1">
         <v>12.173062</v>
       </c>
       <c r="AG5" s="1">
-        <v>1227.690000</v>
+        <v>1227.69</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.296600</v>
+        <v>-85.296599999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>43833.499544</v>
+        <v>43833.499543999998</v>
       </c>
       <c r="AK5" s="1">
         <v>12.175972</v>
       </c>
       <c r="AL5" s="1">
-        <v>1235.330000</v>
+        <v>1235.33</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.393700</v>
+        <v>-89.393699999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>43844.122896</v>
+        <v>43844.122896000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.178923</v>
+        <v>12.178922999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1243.530000</v>
+        <v>1243.53</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.798000</v>
+        <v>-101.798</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>43854.889515</v>
+        <v>43854.889515000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>12.181914</v>
+        <v>12.181914000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1253.590000</v>
+        <v>1253.5899999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.515000</v>
+        <v>-121.515</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>43865.875443</v>
+        <v>43865.875442999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>12.184965</v>
       </c>
       <c r="BA5" s="1">
-        <v>1262.120000</v>
+        <v>1262.1199999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.269000</v>
+        <v>-139.26900000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>43876.491776</v>
+        <v>43876.491776000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>12.187914</v>
+        <v>12.187913999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1302.290000</v>
+        <v>1302.29</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.489000</v>
+        <v>-222.489</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>43887.576401</v>
+        <v>43887.576400999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>12.190993</v>
+        <v>12.190993000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.080000</v>
+        <v>1372.08</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.447000</v>
+        <v>-361.447</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>43898.773091</v>
+        <v>43898.773091000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>12.194104</v>
+        <v>12.194103999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1486.830000</v>
+        <v>1486.83</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-588.208000</v>
+        <v>-588.20799999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>43909.183589</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.196995</v>
+        <v>12.196994999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1619.300000</v>
+        <v>1619.3</v>
       </c>
       <c r="BV5" s="1">
-        <v>-845.231000</v>
+        <v>-845.23099999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>43919.928423</v>
+        <v>43919.928422999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>12.199980</v>
+        <v>12.19998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1773.500000</v>
+        <v>1773.5</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1124.540000</v>
+        <v>-1124.54</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>43931.162343</v>
+        <v>43931.162343000004</v>
       </c>
       <c r="CD5" s="1">
         <v>12.203101</v>
       </c>
       <c r="CE5" s="1">
-        <v>2198.900000</v>
+        <v>2198.9</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1804.590000</v>
+        <v>-1804.59</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>43760.804392</v>
+        <v>43760.804391999998</v>
       </c>
       <c r="B6" s="1">
-        <v>12.155779</v>
+        <v>12.155779000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1155.600000</v>
+        <v>1155.5999999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-231.554000</v>
+        <v>-231.554</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>43771.226826</v>
+        <v>43771.226825999998</v>
       </c>
       <c r="G6" s="1">
         <v>12.158674</v>
       </c>
       <c r="H6" s="1">
-        <v>1172.650000</v>
+        <v>1172.6500000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-197.149000</v>
+        <v>-197.149</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>43781.753421</v>
+        <v>43781.753421000001</v>
       </c>
       <c r="L6" s="1">
         <v>12.161598</v>
       </c>
       <c r="M6" s="1">
-        <v>1198.120000</v>
+        <v>1198.1199999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-140.181000</v>
+        <v>-140.18100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>43792.196192</v>
+        <v>43792.196192000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>12.164499</v>
+        <v>12.164498999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1206.000000</v>
+        <v>1206</v>
       </c>
       <c r="S6" s="1">
-        <v>-121.358000</v>
+        <v>-121.358</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>43802.716833</v>
+        <v>43802.716832999999</v>
       </c>
       <c r="V6" s="1">
-        <v>12.167421</v>
+        <v>12.167420999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="X6" s="1">
-        <v>-103.463000</v>
+        <v>-103.46299999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>43813.157620</v>
+        <v>43813.157619999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>12.170322</v>
+        <v>12.170322000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1222.350000</v>
+        <v>1222.3499999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-88.735900</v>
+        <v>-88.735900000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>43823.363301</v>
+        <v>43823.363300999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.173156</v>
+        <v>12.173156000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1227.660000</v>
+        <v>1227.6600000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.265700</v>
+        <v>-85.265699999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>43833.929615</v>
+        <v>43833.929615000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.176092</v>
+        <v>12.176092000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1235.310000</v>
+        <v>1235.31</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.410500</v>
+        <v>-89.410499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>43844.550907</v>
+        <v>43844.550906999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>12.179042</v>
+        <v>12.179042000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1243.500000</v>
+        <v>1243.5</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.827000</v>
+        <v>-101.827</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>43855.189100</v>
+        <v>43855.189100000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>12.181997</v>
+        <v>12.181997000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1253.580000</v>
+        <v>1253.58</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.509000</v>
+        <v>-121.509</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>43866.231068</v>
+        <v>43866.231068000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>12.185064</v>
+        <v>12.185064000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.291000</v>
+        <v>-139.291</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>43876.852864</v>
@@ -1674,649 +2090,649 @@
         <v>12.188015</v>
       </c>
       <c r="BF6" s="1">
-        <v>1302.290000</v>
+        <v>1302.29</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.514000</v>
+        <v>-222.51400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>43887.960272</v>
+        <v>43887.960271999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>12.191100</v>
+        <v>12.1911</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.030000</v>
+        <v>1372.03</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.358000</v>
+        <v>-361.358</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>43899.195681</v>
+        <v>43899.195680999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.194221</v>
+        <v>12.194221000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1486.840000</v>
+        <v>1486.84</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-588.206000</v>
+        <v>-588.20600000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>43909.611178</v>
+        <v>43909.611177999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>12.197114</v>
+        <v>12.197113999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1619.350000</v>
+        <v>1619.35</v>
       </c>
       <c r="BV6" s="1">
-        <v>-845.235000</v>
+        <v>-845.23500000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>43920.351708</v>
+        <v>43920.351708000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>12.200098</v>
+        <v>12.200098000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1773.520000</v>
+        <v>1773.52</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1124.500000</v>
+        <v>-1124.5</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>43931.700716</v>
+        <v>43931.700715999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>12.203250</v>
+        <v>12.203250000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2197.950000</v>
+        <v>2197.9499999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1802.590000</v>
+        <v>-1802.59</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>43761.457650</v>
+        <v>43761.457649999997</v>
       </c>
       <c r="B7" s="1">
-        <v>12.155960</v>
+        <v>12.15596</v>
       </c>
       <c r="C7" s="1">
-        <v>1155.880000</v>
+        <v>1155.8800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-232.227000</v>
+        <v>-232.227</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>43771.613211</v>
+        <v>43771.613211000004</v>
       </c>
       <c r="G7" s="1">
-        <v>12.158781</v>
+        <v>12.158780999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.600000</v>
+        <v>1172.5999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-195.687000</v>
+        <v>-195.68700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>43782.085281</v>
       </c>
       <c r="L7" s="1">
-        <v>12.161690</v>
+        <v>12.16169</v>
       </c>
       <c r="M7" s="1">
-        <v>1198.140000</v>
+        <v>1198.1400000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-140.331000</v>
+        <v>-140.33099999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>43792.546547</v>
+        <v>43792.546546999998</v>
       </c>
       <c r="Q7" s="1">
         <v>12.164596</v>
       </c>
       <c r="R7" s="1">
-        <v>1206.000000</v>
+        <v>1206</v>
       </c>
       <c r="S7" s="1">
-        <v>-121.346000</v>
+        <v>-121.346</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>43803.060561</v>
+        <v>43803.060560999998</v>
       </c>
       <c r="V7" s="1">
         <v>12.167517</v>
       </c>
       <c r="W7" s="1">
-        <v>1213.820000</v>
+        <v>1213.82</v>
       </c>
       <c r="X7" s="1">
-        <v>-103.369000</v>
+        <v>-103.369</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>43813.506804</v>
+        <v>43813.506803999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>12.170419</v>
+        <v>12.170419000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1222.420000</v>
+        <v>1222.42</v>
       </c>
       <c r="AC7" s="1">
-        <v>-88.782300</v>
+        <v>-88.782300000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>43823.793676</v>
+        <v>43823.793676000001</v>
       </c>
       <c r="AF7" s="1">
         <v>12.173276</v>
       </c>
       <c r="AG7" s="1">
-        <v>1227.650000</v>
+        <v>1227.6500000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.289100</v>
+        <v>-85.289100000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>43834.209319</v>
+        <v>43834.209319000001</v>
       </c>
       <c r="AK7" s="1">
         <v>12.176169</v>
       </c>
       <c r="AL7" s="1">
-        <v>1235.300000</v>
+        <v>1235.3</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.396600</v>
+        <v>-89.396600000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>43844.842553</v>
+        <v>43844.842553000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>12.179123</v>
+        <v>12.179123000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1243.520000</v>
+        <v>1243.52</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.786000</v>
+        <v>-101.786</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>43855.551676</v>
+        <v>43855.551676000003</v>
       </c>
       <c r="AU7" s="1">
         <v>12.182098</v>
       </c>
       <c r="AV7" s="1">
-        <v>1253.620000</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.527000</v>
+        <v>-121.527</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>43866.589984</v>
+        <v>43866.589983999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>12.185164</v>
       </c>
       <c r="BA7" s="1">
-        <v>1262.080000</v>
+        <v>1262.08</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.302000</v>
+        <v>-139.30199999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>43877.211470</v>
+        <v>43877.211470000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>12.188114</v>
+        <v>12.188114000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.537000</v>
+        <v>-222.53700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>43888.724143</v>
+        <v>43888.724142999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>12.191312</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.425000</v>
+        <v>-361.42500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>43899.594432</v>
+        <v>43899.594431999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>12.194332</v>
+        <v>12.194331999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1486.760000</v>
+        <v>1486.76</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-588.239000</v>
+        <v>-588.23900000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>43910.023811</v>
+        <v>43910.023810999999</v>
       </c>
       <c r="BT7" s="1">
         <v>12.197229</v>
       </c>
       <c r="BU7" s="1">
-        <v>1619.280000</v>
+        <v>1619.28</v>
       </c>
       <c r="BV7" s="1">
-        <v>-845.244000</v>
+        <v>-845.24400000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>43920.776617</v>
+        <v>43920.776617000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>12.200216</v>
+        <v>12.200215999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1773.700000</v>
+        <v>1773.7</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1124.480000</v>
+        <v>-1124.48</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>43932.552598</v>
+        <v>43932.552598000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>12.203487</v>
+        <v>12.203487000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2199.530000</v>
+        <v>2199.5300000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1804.530000</v>
+        <v>-1804.53</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>43761.833591</v>
+        <v>43761.833591000002</v>
       </c>
       <c r="B8" s="1">
         <v>12.156065</v>
       </c>
       <c r="C8" s="1">
-        <v>1155.760000</v>
+        <v>1155.76</v>
       </c>
       <c r="D8" s="1">
-        <v>-232.172000</v>
+        <v>-232.172</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>43771.956948</v>
+        <v>43771.956947999999</v>
       </c>
       <c r="G8" s="1">
         <v>12.158877</v>
       </c>
       <c r="H8" s="1">
-        <v>1174.250000</v>
+        <v>1174.25</v>
       </c>
       <c r="I8" s="1">
-        <v>-197.004000</v>
+        <v>-197.00399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>43782.434459</v>
+        <v>43782.434458999996</v>
       </c>
       <c r="L8" s="1">
         <v>12.161787</v>
       </c>
       <c r="M8" s="1">
-        <v>1197.970000</v>
+        <v>1197.97</v>
       </c>
       <c r="N8" s="1">
-        <v>-140.332000</v>
+        <v>-140.33199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>43792.895596</v>
+        <v>43792.895596000002</v>
       </c>
       <c r="Q8" s="1">
         <v>12.164693</v>
       </c>
       <c r="R8" s="1">
-        <v>1205.970000</v>
+        <v>1205.97</v>
       </c>
       <c r="S8" s="1">
-        <v>-121.325000</v>
+        <v>-121.325</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>43803.477695</v>
+        <v>43803.477695000001</v>
       </c>
       <c r="V8" s="1">
         <v>12.167633</v>
       </c>
       <c r="W8" s="1">
-        <v>1213.870000</v>
+        <v>1213.8699999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-103.392000</v>
+        <v>-103.392</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>43813.935842</v>
+        <v>43813.935841999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>12.170538</v>
+        <v>12.170538000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AC8" s="1">
-        <v>-88.806700</v>
+        <v>-88.806700000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>43824.051777</v>
+        <v>43824.051777000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>12.173348</v>
+        <v>12.173348000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1227.630000</v>
+        <v>1227.6300000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.265800</v>
+        <v>-85.265799999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>43834.553578</v>
+        <v>43834.553577999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>12.176265</v>
+        <v>12.176265000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1235.280000</v>
+        <v>1235.28</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.402200</v>
+        <v>-89.402199999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>43845.201689</v>
+        <v>43845.201689000001</v>
       </c>
       <c r="AP8" s="1">
         <v>12.179223</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1243.510000</v>
+        <v>1243.51</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.807000</v>
+        <v>-101.807</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>43855.918220</v>
+        <v>43855.91822</v>
       </c>
       <c r="AU8" s="1">
-        <v>12.182200</v>
+        <v>12.1822</v>
       </c>
       <c r="AV8" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.530000</v>
+        <v>-121.53</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>43867.305868</v>
+        <v>43867.305868000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.185363</v>
+        <v>12.185363000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1262.080000</v>
+        <v>1262.08</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.287000</v>
+        <v>-139.28700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>43877.938109</v>
+        <v>43877.938109000002</v>
       </c>
       <c r="BE8" s="1">
         <v>12.188316</v>
       </c>
       <c r="BF8" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.543000</v>
+        <v>-222.54300000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>43889.099086</v>
+        <v>43889.099086000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>12.191416</v>
       </c>
       <c r="BK8" s="1">
-        <v>1371.950000</v>
+        <v>1371.95</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.444000</v>
+        <v>-361.44400000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>43900.013056</v>
+        <v>43900.013056000003</v>
       </c>
       <c r="BO8" s="1">
         <v>12.194448</v>
       </c>
       <c r="BP8" s="1">
-        <v>1486.830000</v>
+        <v>1486.83</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-588.248000</v>
+        <v>-588.24800000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>43910.453348</v>
+        <v>43910.453348000003</v>
       </c>
       <c r="BT8" s="1">
         <v>12.197348</v>
       </c>
       <c r="BU8" s="1">
-        <v>1619.300000</v>
+        <v>1619.3</v>
       </c>
       <c r="BV8" s="1">
-        <v>-845.156000</v>
+        <v>-845.15599999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>43921.507189</v>
+        <v>43921.507189000004</v>
       </c>
       <c r="BY8" s="1">
         <v>12.200419</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1773.430000</v>
+        <v>1773.43</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1124.670000</v>
+        <v>-1124.67</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>43932.778310</v>
+        <v>43932.778310000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>12.203550</v>
+        <v>12.20355</v>
       </c>
       <c r="CE8" s="1">
-        <v>2198.980000</v>
+        <v>2198.98</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1804.110000</v>
+        <v>-1804.11</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>43762.175334</v>
       </c>
       <c r="B9" s="1">
-        <v>12.156160</v>
+        <v>12.15616</v>
       </c>
       <c r="C9" s="1">
-        <v>1155.870000</v>
+        <v>1155.8699999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-231.896000</v>
+        <v>-231.89599999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>43772.301162</v>
+        <v>43772.301162000003</v>
       </c>
       <c r="G9" s="1">
         <v>12.158973</v>
       </c>
       <c r="H9" s="1">
-        <v>1173.350000</v>
+        <v>1173.3499999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-196.295000</v>
+        <v>-196.29499999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>43782.862474</v>
+        <v>43782.862474000001</v>
       </c>
       <c r="L9" s="1">
         <v>12.161906</v>
       </c>
       <c r="M9" s="1">
-        <v>1197.920000</v>
+        <v>1197.92</v>
       </c>
       <c r="N9" s="1">
-        <v>-140.196000</v>
+        <v>-140.196</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>43793.321613</v>
@@ -2325,28 +2741,28 @@
         <v>12.164812</v>
       </c>
       <c r="R9" s="1">
-        <v>1205.920000</v>
+        <v>1205.92</v>
       </c>
       <c r="S9" s="1">
-        <v>-121.354000</v>
+        <v>-121.354</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>43803.757439</v>
+        <v>43803.757439000001</v>
       </c>
       <c r="V9" s="1">
-        <v>12.167710</v>
+        <v>12.16771</v>
       </c>
       <c r="W9" s="1">
-        <v>1213.920000</v>
+        <v>1213.92</v>
       </c>
       <c r="X9" s="1">
-        <v>-103.332000</v>
+        <v>-103.33199999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>43814.212151</v>
@@ -2355,695 +2771,695 @@
         <v>12.170614</v>
       </c>
       <c r="AB9" s="1">
-        <v>1222.380000</v>
+        <v>1222.3800000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-88.839600</v>
+        <v>-88.839600000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>43824.396499</v>
+        <v>43824.396499000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.173443</v>
+        <v>12.173443000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1227.710000</v>
+        <v>1227.71</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.277000</v>
+        <v>-85.277000000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>43834.906730</v>
+        <v>43834.906730000002</v>
       </c>
       <c r="AK9" s="1">
         <v>12.176363</v>
       </c>
       <c r="AL9" s="1">
-        <v>1235.310000</v>
+        <v>1235.31</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.387600</v>
+        <v>-89.387600000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>43845.563240</v>
+        <v>43845.563240000003</v>
       </c>
       <c r="AP9" s="1">
         <v>12.179323</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.783000</v>
+        <v>-101.783</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>43856.656761</v>
+        <v>43856.656760999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>12.182405</v>
+        <v>12.182404999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.520000</v>
+        <v>-121.52</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>43867.689773</v>
+        <v>43867.689772999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>12.185469</v>
+        <v>12.185468999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1262.110000</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.285000</v>
+        <v>-139.285</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>43878.296717</v>
+        <v>43878.296716999997</v>
       </c>
       <c r="BE9" s="1">
         <v>12.188416</v>
       </c>
       <c r="BF9" s="1">
-        <v>1302.280000</v>
+        <v>1302.28</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.532000</v>
+        <v>-222.53200000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>43889.473078</v>
+        <v>43889.473078000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.191520</v>
+        <v>12.191520000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.000000</v>
+        <v>1372</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.359000</v>
+        <v>-361.35899999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>43900.718863</v>
+        <v>43900.718863000002</v>
       </c>
       <c r="BO9" s="1">
         <v>12.194644</v>
       </c>
       <c r="BP9" s="1">
-        <v>1486.790000</v>
+        <v>1486.79</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-588.218000</v>
+        <v>-588.21799999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>43911.188948</v>
+        <v>43911.188948000003</v>
       </c>
       <c r="BT9" s="1">
         <v>12.197552</v>
       </c>
       <c r="BU9" s="1">
-        <v>1619.330000</v>
+        <v>1619.33</v>
       </c>
       <c r="BV9" s="1">
-        <v>-845.160000</v>
+        <v>-845.16</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>43921.640613</v>
+        <v>43921.640613000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.200456</v>
+        <v>12.200456000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1773.650000</v>
+        <v>1773.65</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1124.730000</v>
+        <v>-1124.73</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>43933.299108</v>
+        <v>43933.299107999999</v>
       </c>
       <c r="CD9" s="1">
         <v>12.203694</v>
       </c>
       <c r="CE9" s="1">
-        <v>2197.810000</v>
+        <v>2197.81</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1802.930000</v>
+        <v>-1802.93</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>43762.524518</v>
+        <v>43762.524517999998</v>
       </c>
       <c r="B10" s="1">
         <v>12.156257</v>
       </c>
       <c r="C10" s="1">
-        <v>1155.600000</v>
+        <v>1155.5999999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-232.333000</v>
+        <v>-232.333</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>43772.724777</v>
+        <v>43772.724777000003</v>
       </c>
       <c r="G10" s="1">
-        <v>12.159090</v>
+        <v>12.159090000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1173.210000</v>
+        <v>1173.21</v>
       </c>
       <c r="I10" s="1">
-        <v>-195.933000</v>
+        <v>-195.93299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>43783.126842</v>
+        <v>43783.126841999998</v>
       </c>
       <c r="L10" s="1">
-        <v>12.161980</v>
+        <v>12.16198</v>
       </c>
       <c r="M10" s="1">
-        <v>1198.260000</v>
+        <v>1198.26</v>
       </c>
       <c r="N10" s="1">
-        <v>-140.240000</v>
+        <v>-140.24</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>43793.592429</v>
+        <v>43793.592428999997</v>
       </c>
       <c r="Q10" s="1">
         <v>12.164887</v>
       </c>
       <c r="R10" s="1">
-        <v>1205.940000</v>
+        <v>1205.94</v>
       </c>
       <c r="S10" s="1">
-        <v>-121.315000</v>
+        <v>-121.315</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>43804.102159</v>
+        <v>43804.102159000002</v>
       </c>
       <c r="V10" s="1">
-        <v>12.167806</v>
+        <v>12.167806000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1213.760000</v>
+        <v>1213.76</v>
       </c>
       <c r="X10" s="1">
-        <v>-103.675000</v>
+        <v>-103.675</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>43814.554849</v>
       </c>
       <c r="AA10" s="1">
-        <v>12.170710</v>
+        <v>12.17071</v>
       </c>
       <c r="AB10" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AC10" s="1">
-        <v>-88.828100</v>
+        <v>-88.828100000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>43824.740691</v>
+        <v>43824.740690999999</v>
       </c>
       <c r="AF10" s="1">
         <v>12.173539</v>
       </c>
       <c r="AG10" s="1">
-        <v>1227.620000</v>
+        <v>1227.6199999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.279800</v>
+        <v>-85.279799999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>43835.603109</v>
+        <v>43835.603109000003</v>
       </c>
       <c r="AK10" s="1">
         <v>12.176556</v>
       </c>
       <c r="AL10" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.399000</v>
+        <v>-89.399000000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>43846.281944</v>
+        <v>43846.281944000002</v>
       </c>
       <c r="AP10" s="1">
         <v>12.179523</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1243.510000</v>
+        <v>1243.51</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.767000</v>
+        <v>-101.767</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>43857.038681</v>
+        <v>43857.038680999998</v>
       </c>
       <c r="AU10" s="1">
         <v>12.182511</v>
       </c>
       <c r="AV10" s="1">
-        <v>1253.580000</v>
+        <v>1253.58</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.513000</v>
+        <v>-121.51300000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>43868.069737</v>
+        <v>43868.069736999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>12.185575</v>
       </c>
       <c r="BA10" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.282000</v>
+        <v>-139.28200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>43878.658796</v>
+        <v>43878.658796000003</v>
       </c>
       <c r="BE10" s="1">
         <v>12.188516</v>
       </c>
       <c r="BF10" s="1">
-        <v>1302.290000</v>
+        <v>1302.29</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.549000</v>
+        <v>-222.54900000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>43890.189789</v>
+        <v>43890.189788999996</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.191719</v>
+        <v>12.191719000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.010000</v>
+        <v>1372.01</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.452000</v>
+        <v>-361.452</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>43900.849327</v>
+        <v>43900.849327000004</v>
       </c>
       <c r="BO10" s="1">
-        <v>12.194680</v>
+        <v>12.19468</v>
       </c>
       <c r="BP10" s="1">
-        <v>1486.830000</v>
+        <v>1486.83</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-588.214000</v>
+        <v>-588.21400000000006</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>43911.327793</v>
+        <v>43911.327792999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.197591</v>
+        <v>12.197590999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.330000</v>
+        <v>1619.33</v>
       </c>
       <c r="BV10" s="1">
-        <v>-845.161000</v>
+        <v>-845.16099999999994</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>43922.063202</v>
+        <v>43922.063201999998</v>
       </c>
       <c r="BY10" s="1">
         <v>12.200573</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1773.710000</v>
+        <v>1773.71</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1124.510000</v>
+        <v>-1124.51</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>43933.818387</v>
+        <v>43933.818386999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>12.203838</v>
+        <v>12.203837999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2197.160000</v>
+        <v>2197.16</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1804.640000</v>
+        <v>-1804.64</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>43762.957029</v>
+        <v>43762.957028999997</v>
       </c>
       <c r="B11" s="1">
-        <v>12.156377</v>
+        <v>12.156377000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1155.910000</v>
+        <v>1155.9100000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-231.868000</v>
+        <v>-231.86799999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>43773.013416</v>
+        <v>43773.013416000002</v>
       </c>
       <c r="G11" s="1">
-        <v>12.159170</v>
+        <v>12.15917</v>
       </c>
       <c r="H11" s="1">
-        <v>1173.360000</v>
+        <v>1173.3599999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-196.486000</v>
+        <v>-196.48599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>43783.472554</v>
       </c>
       <c r="L11" s="1">
-        <v>12.162076</v>
+        <v>12.162076000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1198.070000</v>
+        <v>1198.07</v>
       </c>
       <c r="N11" s="1">
-        <v>-140.270000</v>
+        <v>-140.27000000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>43793.941157</v>
+        <v>43793.941157000001</v>
       </c>
       <c r="Q11" s="1">
         <v>12.164984</v>
       </c>
       <c r="R11" s="1">
-        <v>1205.970000</v>
+        <v>1205.97</v>
       </c>
       <c r="S11" s="1">
-        <v>-121.302000</v>
+        <v>-121.30200000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>43804.443407</v>
+        <v>43804.443406999999</v>
       </c>
       <c r="V11" s="1">
-        <v>12.167901</v>
+        <v>12.167901000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="X11" s="1">
-        <v>-103.347000</v>
+        <v>-103.34699999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>43815.115365</v>
+        <v>43815.115364999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.170865</v>
+        <v>12.170864999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1222.370000</v>
+        <v>1222.3699999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-88.723100</v>
+        <v>-88.723100000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>43825.427650</v>
+        <v>43825.427649999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.173730</v>
+        <v>12.173730000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1227.600000</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.238800</v>
+        <v>-85.238799999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>43835.949286</v>
+        <v>43835.949286000003</v>
       </c>
       <c r="AK11" s="1">
         <v>12.176653</v>
       </c>
       <c r="AL11" s="1">
-        <v>1235.270000</v>
+        <v>1235.27</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.385400</v>
+        <v>-89.385400000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>43846.671798</v>
+        <v>43846.671798000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>12.179631</v>
+        <v>12.179631000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.774000</v>
+        <v>-101.774</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>43857.400264</v>
+        <v>43857.400264000004</v>
       </c>
       <c r="AU11" s="1">
         <v>12.182611</v>
       </c>
       <c r="AV11" s="1">
-        <v>1253.560000</v>
+        <v>1253.56</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.521000</v>
+        <v>-121.521</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>43868.746249</v>
+        <v>43868.746249000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>12.185763</v>
       </c>
       <c r="BA11" s="1">
-        <v>1262.090000</v>
+        <v>1262.0899999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.289000</v>
+        <v>-139.28899999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>43879.329885</v>
+        <v>43879.329884999999</v>
       </c>
       <c r="BE11" s="1">
         <v>12.188703</v>
       </c>
       <c r="BF11" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.548000</v>
+        <v>-222.548</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>43890.625278</v>
       </c>
       <c r="BJ11" s="1">
-        <v>12.191840</v>
+        <v>12.191839999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.090000</v>
+        <v>1372.09</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.408000</v>
+        <v>-361.40800000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>43901.258015</v>
+        <v>43901.258014999999</v>
       </c>
       <c r="BO11" s="1">
         <v>12.194794</v>
       </c>
       <c r="BP11" s="1">
-        <v>1486.800000</v>
+        <v>1486.8</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-588.228000</v>
+        <v>-588.22799999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>43911.739969</v>
+        <v>43911.739969000002</v>
       </c>
       <c r="BT11" s="1">
         <v>12.197706</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.280000</v>
+        <v>1619.28</v>
       </c>
       <c r="BV11" s="1">
-        <v>-845.121000</v>
+        <v>-845.12099999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>43922.486786</v>
+        <v>43922.486786000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>12.200691</v>
+        <v>12.200691000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1773.560000</v>
+        <v>1773.56</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1124.460000</v>
+        <v>-1124.46</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>43934.334760</v>
+        <v>43934.334759999998</v>
       </c>
       <c r="CD11" s="1">
         <v>12.203982</v>
       </c>
       <c r="CE11" s="1">
-        <v>2198.900000</v>
+        <v>2198.9</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1805.160000</v>
+        <v>-1805.16</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>43763.226853</v>
       </c>
@@ -3051,133 +3467,133 @@
         <v>12.156452</v>
       </c>
       <c r="C12" s="1">
-        <v>1155.590000</v>
+        <v>1155.5899999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-231.891000</v>
+        <v>-231.89099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>43773.359163</v>
+        <v>43773.359163000001</v>
       </c>
       <c r="G12" s="1">
-        <v>12.159266</v>
+        <v>12.159266000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1174.070000</v>
+        <v>1174.07</v>
       </c>
       <c r="I12" s="1">
-        <v>-196.304000</v>
+        <v>-196.304</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>43783.816809</v>
+        <v>43783.816809000004</v>
       </c>
       <c r="L12" s="1">
-        <v>12.162171</v>
+        <v>12.162171000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1198.010000</v>
+        <v>1198.01</v>
       </c>
       <c r="N12" s="1">
-        <v>-140.288000</v>
+        <v>-140.28800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>43794.289340</v>
+        <v>43794.289340000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>12.165080</v>
+        <v>12.16508</v>
       </c>
       <c r="R12" s="1">
-        <v>1205.980000</v>
+        <v>1205.98</v>
       </c>
       <c r="S12" s="1">
-        <v>-121.385000</v>
+        <v>-121.38500000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>43805.131886</v>
+        <v>43805.131886000003</v>
       </c>
       <c r="V12" s="1">
         <v>12.168092</v>
       </c>
       <c r="W12" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="X12" s="1">
-        <v>-103.436000</v>
+        <v>-103.43600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>43815.250240</v>
+        <v>43815.250240000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>12.170903</v>
+        <v>12.170902999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1222.280000</v>
+        <v>1222.28</v>
       </c>
       <c r="AC12" s="1">
-        <v>-88.810600</v>
+        <v>-88.810599999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>43825.770882</v>
+        <v>43825.770881999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>12.173825</v>
+        <v>12.173825000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1227.640000</v>
+        <v>1227.6400000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.272400</v>
+        <v>-85.272400000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>43836.301444</v>
+        <v>43836.301443999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.176750</v>
+        <v>12.17675</v>
       </c>
       <c r="AL12" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.404900</v>
+        <v>-89.404899999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>43847.048299</v>
+        <v>43847.048299000002</v>
       </c>
       <c r="AP12" s="1">
         <v>12.179736</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1243.480000</v>
+        <v>1243.48</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.766000</v>
+        <v>-101.76600000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>43858.084744</v>
@@ -3186,225 +3602,225 @@
         <v>12.182801</v>
       </c>
       <c r="AV12" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.530000</v>
+        <v>-121.53</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>43869.154457</v>
+        <v>43869.154456999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>12.185876</v>
       </c>
       <c r="BA12" s="1">
-        <v>1262.110000</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.292000</v>
+        <v>-139.292</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>43879.774795</v>
+        <v>43879.774794999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>12.188826</v>
+        <v>12.188826000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.516000</v>
+        <v>-222.51599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>43891.030508</v>
+        <v>43891.030508000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>12.191953</v>
       </c>
       <c r="BK12" s="1">
-        <v>1371.980000</v>
+        <v>1371.98</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.404000</v>
+        <v>-361.404</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>43901.655315</v>
+        <v>43901.655315000004</v>
       </c>
       <c r="BO12" s="1">
-        <v>12.194904</v>
+        <v>12.194903999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1486.840000</v>
+        <v>1486.84</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-588.223000</v>
+        <v>-588.22299999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>43912.169117</v>
+        <v>43912.169116999998</v>
       </c>
       <c r="BT12" s="1">
         <v>12.197825</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.320000</v>
+        <v>1619.32</v>
       </c>
       <c r="BV12" s="1">
-        <v>-845.141000</v>
+        <v>-845.14099999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>43922.906403</v>
+        <v>43922.906403000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.200807</v>
+        <v>12.200806999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1773.630000</v>
+        <v>1773.63</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1124.480000</v>
+        <v>-1124.48</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>43934.851058</v>
       </c>
       <c r="CD12" s="1">
-        <v>12.204125</v>
+        <v>12.204124999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2198.790000</v>
+        <v>2198.79</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1805.360000</v>
+        <v>-1805.36</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>43763.568633</v>
+        <v>43763.568633000003</v>
       </c>
       <c r="B13" s="1">
         <v>12.156547</v>
       </c>
       <c r="C13" s="1">
-        <v>1155.760000</v>
+        <v>1155.76</v>
       </c>
       <c r="D13" s="1">
-        <v>-232.204000</v>
+        <v>-232.20400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>43773.703385</v>
+        <v>43773.703385000001</v>
       </c>
       <c r="G13" s="1">
         <v>12.159362</v>
       </c>
       <c r="H13" s="1">
-        <v>1173.230000</v>
+        <v>1173.23</v>
       </c>
       <c r="I13" s="1">
-        <v>-196.308000</v>
+        <v>-196.30799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>43784.508232</v>
       </c>
       <c r="L13" s="1">
-        <v>12.162363</v>
+        <v>12.162362999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1198.130000</v>
+        <v>1198.1300000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-140.255000</v>
+        <v>-140.255</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>43794.987713</v>
+        <v>43794.987713000002</v>
       </c>
       <c r="Q13" s="1">
         <v>12.165274</v>
       </c>
       <c r="R13" s="1">
-        <v>1205.930000</v>
+        <v>1205.93</v>
       </c>
       <c r="S13" s="1">
-        <v>-121.419000</v>
+        <v>-121.419</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>43805.474589</v>
+        <v>43805.474588999998</v>
       </c>
       <c r="V13" s="1">
         <v>12.168187</v>
       </c>
       <c r="W13" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="X13" s="1">
-        <v>-103.393000</v>
+        <v>-103.393</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>43815.599948</v>
+        <v>43815.599948000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>12.171000</v>
+        <v>12.170999999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1222.330000</v>
+        <v>1222.33</v>
       </c>
       <c r="AC13" s="1">
-        <v>-88.787400</v>
+        <v>-88.787400000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>43826.113122</v>
+        <v>43826.113122000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>12.173920</v>
+        <v>12.173920000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1227.600000</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.273500</v>
+        <v>-85.273499999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>43836.959163</v>
@@ -3413,88 +3829,88 @@
         <v>12.176933</v>
       </c>
       <c r="AL13" s="1">
-        <v>1235.290000</v>
+        <v>1235.29</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.396500</v>
+        <v>-89.396500000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>43847.764983</v>
+        <v>43847.764983000001</v>
       </c>
       <c r="AP13" s="1">
         <v>12.179935</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1243.500000</v>
+        <v>1243.5</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.795000</v>
+        <v>-101.795</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>43858.523208</v>
+        <v>43858.523207999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.182923</v>
+        <v>12.182923000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1253.600000</v>
+        <v>1253.5999999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.523000</v>
+        <v>-121.523</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>43869.529464</v>
+        <v>43869.529463999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>12.185980</v>
+        <v>12.185980000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1262.110000</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.307000</v>
+        <v>-139.30699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>43880.138858</v>
+        <v>43880.138857999998</v>
       </c>
       <c r="BE13" s="1">
         <v>12.188927</v>
       </c>
       <c r="BF13" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.529000</v>
+        <v>-222.529</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>43891.407995</v>
+        <v>43891.407995000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>12.192058</v>
+        <v>12.192057999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.030000</v>
+        <v>1372.03</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.364000</v>
+        <v>-361.36399999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>43902.080381</v>
@@ -3503,195 +3919,195 @@
         <v>12.195022</v>
       </c>
       <c r="BP13" s="1">
-        <v>1486.830000</v>
+        <v>1486.83</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-588.223000</v>
+        <v>-588.22299999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>43912.617391</v>
       </c>
       <c r="BT13" s="1">
-        <v>12.197949</v>
+        <v>12.197948999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.310000</v>
+        <v>1619.31</v>
       </c>
       <c r="BV13" s="1">
-        <v>-845.168000</v>
+        <v>-845.16800000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>43923.351500</v>
+        <v>43923.351499999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>12.200931</v>
+        <v>12.200931000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1773.590000</v>
+        <v>1773.59</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1124.530000</v>
+        <v>-1124.53</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>43935.413025</v>
+        <v>43935.413025000002</v>
       </c>
       <c r="CD13" s="1">
         <v>12.204281</v>
       </c>
       <c r="CE13" s="1">
-        <v>2197.340000</v>
+        <v>2197.34</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1805.210000</v>
+        <v>-1805.21</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>43763.908388</v>
+        <v>43763.908388000003</v>
       </c>
       <c r="B14" s="1">
         <v>12.156641</v>
       </c>
       <c r="C14" s="1">
-        <v>1155.610000</v>
+        <v>1155.6099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-232.087000</v>
+        <v>-232.08699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>43774.392294</v>
+        <v>43774.392293999997</v>
       </c>
       <c r="G14" s="1">
-        <v>12.159553</v>
+        <v>12.159553000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1173.060000</v>
+        <v>1173.06</v>
       </c>
       <c r="I14" s="1">
-        <v>-196.855000</v>
+        <v>-196.85499999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>43784.851957</v>
+        <v>43784.851956999999</v>
       </c>
       <c r="L14" s="1">
         <v>12.162459</v>
       </c>
       <c r="M14" s="1">
-        <v>1197.960000</v>
+        <v>1197.96</v>
       </c>
       <c r="N14" s="1">
-        <v>-140.170000</v>
+        <v>-140.16999999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>43795.335867</v>
+        <v>43795.335867000002</v>
       </c>
       <c r="Q14" s="1">
         <v>12.165371</v>
       </c>
       <c r="R14" s="1">
-        <v>1205.920000</v>
+        <v>1205.92</v>
       </c>
       <c r="S14" s="1">
-        <v>-121.477000</v>
+        <v>-121.477</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>43805.817820</v>
+        <v>43805.817819999997</v>
       </c>
       <c r="V14" s="1">
-        <v>12.168283</v>
+        <v>12.168283000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1213.760000</v>
+        <v>1213.76</v>
       </c>
       <c r="X14" s="1">
-        <v>-103.364000</v>
+        <v>-103.364</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>43816.271504</v>
+        <v>43816.271503999997</v>
       </c>
       <c r="AA14" s="1">
         <v>12.171187</v>
       </c>
       <c r="AB14" s="1">
-        <v>1222.370000</v>
+        <v>1222.3699999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-88.731800</v>
+        <v>-88.731800000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>43826.781729</v>
+        <v>43826.781729000002</v>
       </c>
       <c r="AF14" s="1">
         <v>12.174106</v>
       </c>
       <c r="AG14" s="1">
-        <v>1227.600000</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.158400</v>
+        <v>-85.1584</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>43837.348034</v>
+        <v>43837.348034000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.177041</v>
+        <v>12.177040999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1235.280000</v>
+        <v>1235.28</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.385500</v>
+        <v>-89.385499999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>43848.129076</v>
+        <v>43848.129075999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>12.180036</v>
+        <v>12.180035999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1243.510000</v>
+        <v>1243.51</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.791000</v>
+        <v>-101.791</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>43858.887766</v>
@@ -3700,58 +4116,58 @@
         <v>12.183024</v>
       </c>
       <c r="AV14" s="1">
-        <v>1253.590000</v>
+        <v>1253.5899999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.514000</v>
+        <v>-121.514</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>43869.909863</v>
+        <v>43869.909863000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.186086</v>
       </c>
       <c r="BA14" s="1">
-        <v>1262.070000</v>
+        <v>1262.07</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.291000</v>
+        <v>-139.291</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>43880.498469</v>
+        <v>43880.498468999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>12.189027</v>
+        <v>12.189026999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1302.280000</v>
+        <v>1302.28</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.521000</v>
+        <v>-222.52099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>43891.832044</v>
+        <v>43891.832044000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>12.192176</v>
       </c>
       <c r="BK14" s="1">
-        <v>1371.970000</v>
+        <v>1371.97</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.390000</v>
+        <v>-361.39</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>43902.472253</v>
@@ -3760,90 +4176,90 @@
         <v>12.195131</v>
       </c>
       <c r="BP14" s="1">
-        <v>1486.790000</v>
+        <v>1486.79</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-588.211000</v>
+        <v>-588.21100000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>43913.024148</v>
+        <v>43913.024147999997</v>
       </c>
       <c r="BT14" s="1">
         <v>12.198062</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.380000</v>
+        <v>1619.38</v>
       </c>
       <c r="BV14" s="1">
-        <v>-845.219000</v>
+        <v>-845.21900000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>43923.771426</v>
+        <v>43923.771425999999</v>
       </c>
       <c r="BY14" s="1">
         <v>12.201048</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1773.570000</v>
+        <v>1773.57</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1124.500000</v>
+        <v>-1124.5</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>43935.933836</v>
+        <v>43935.933835999997</v>
       </c>
       <c r="CD14" s="1">
         <v>12.204426</v>
       </c>
       <c r="CE14" s="1">
-        <v>2199.050000</v>
+        <v>2199.0500000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1804.790000</v>
+        <v>-1804.79</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>43764.594323</v>
+        <v>43764.594322999998</v>
       </c>
       <c r="B15" s="1">
         <v>12.156832</v>
       </c>
       <c r="C15" s="1">
-        <v>1155.870000</v>
+        <v>1155.8699999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-232.204000</v>
+        <v>-232.20400000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>43774.737046</v>
+        <v>43774.737046000002</v>
       </c>
       <c r="G15" s="1">
         <v>12.159649</v>
       </c>
       <c r="H15" s="1">
-        <v>1173.070000</v>
+        <v>1173.07</v>
       </c>
       <c r="I15" s="1">
-        <v>-196.663000</v>
+        <v>-196.66300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>43785.202115</v>
@@ -3852,330 +4268,330 @@
         <v>12.162556</v>
       </c>
       <c r="M15" s="1">
-        <v>1198.150000</v>
+        <v>1198.1500000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-140.399000</v>
+        <v>-140.399</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>43795.684555</v>
       </c>
       <c r="Q15" s="1">
-        <v>12.165468</v>
+        <v>12.165468000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1205.860000</v>
+        <v>1205.8599999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-121.455000</v>
+        <v>-121.455</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>43806.483949</v>
+        <v>43806.483949000001</v>
       </c>
       <c r="V15" s="1">
-        <v>12.168468</v>
+        <v>12.168468000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1214.070000</v>
+        <v>1214.07</v>
       </c>
       <c r="X15" s="1">
-        <v>-103.228000</v>
+        <v>-103.22799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>43816.648461</v>
+        <v>43816.648460999997</v>
       </c>
       <c r="AA15" s="1">
         <v>12.171291</v>
       </c>
       <c r="AB15" s="1">
-        <v>1222.520000</v>
+        <v>1222.52</v>
       </c>
       <c r="AC15" s="1">
-        <v>-88.794100</v>
+        <v>-88.7941</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>43827.143350</v>
+        <v>43827.143349999998</v>
       </c>
       <c r="AF15" s="1">
         <v>12.174206</v>
       </c>
       <c r="AG15" s="1">
-        <v>1227.800000</v>
+        <v>1227.8</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.044100</v>
+        <v>-85.0441</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>43837.695202</v>
+        <v>43837.695202000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>12.177138</v>
+        <v>12.177137999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1235.280000</v>
+        <v>1235.28</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.398200</v>
+        <v>-89.398200000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>43848.491621</v>
+        <v>43848.491621000001</v>
       </c>
       <c r="AP15" s="1">
         <v>12.180137</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.778000</v>
+        <v>-101.77800000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>43859.251862</v>
+        <v>43859.251861999997</v>
       </c>
       <c r="AU15" s="1">
         <v>12.183126</v>
       </c>
       <c r="AV15" s="1">
-        <v>1253.600000</v>
+        <v>1253.5999999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.521000</v>
+        <v>-121.521</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>43870.330472</v>
+        <v>43870.330472000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>12.186203</v>
+        <v>12.186203000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.288000</v>
+        <v>-139.28800000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>43881.220136</v>
+        <v>43881.220136000004</v>
       </c>
       <c r="BE15" s="1">
         <v>12.189228</v>
       </c>
       <c r="BF15" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.525000</v>
+        <v>-222.52500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>43892.179739</v>
+        <v>43892.179738999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>12.192272</v>
+        <v>12.192272000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.030000</v>
+        <v>1372.03</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.343000</v>
+        <v>-361.34300000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>43902.894839</v>
+        <v>43902.894839000001</v>
       </c>
       <c r="BO15" s="1">
         <v>12.195249</v>
       </c>
       <c r="BP15" s="1">
-        <v>1486.840000</v>
+        <v>1486.84</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-588.193000</v>
+        <v>-588.19299999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>43913.414959</v>
+        <v>43913.414959000002</v>
       </c>
       <c r="BT15" s="1">
         <v>12.198171</v>
       </c>
       <c r="BU15" s="1">
-        <v>1619.370000</v>
+        <v>1619.37</v>
       </c>
       <c r="BV15" s="1">
-        <v>-845.202000</v>
+        <v>-845.202</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>43924.196496</v>
+        <v>43924.196495999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.201166</v>
+        <v>12.201166000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1773.740000</v>
+        <v>1773.74</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1124.430000</v>
+        <v>-1124.43</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>43936.452181</v>
+        <v>43936.452181000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>12.204570</v>
+        <v>12.20457</v>
       </c>
       <c r="CE15" s="1">
-        <v>2198.330000</v>
+        <v>2198.33</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1805.640000</v>
+        <v>-1805.64</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>43764.938050</v>
+        <v>43764.938049999997</v>
       </c>
       <c r="B16" s="1">
         <v>12.156927</v>
       </c>
       <c r="C16" s="1">
-        <v>1155.720000</v>
+        <v>1155.72</v>
       </c>
       <c r="D16" s="1">
-        <v>-232.071000</v>
+        <v>-232.071</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>43775.083718</v>
+        <v>43775.083718000002</v>
       </c>
       <c r="G16" s="1">
-        <v>12.159745</v>
+        <v>12.159744999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1173.150000</v>
+        <v>1173.1500000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-196.691000</v>
+        <v>-196.691</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>43785.858807</v>
+        <v>43785.858806999997</v>
       </c>
       <c r="L16" s="1">
         <v>12.162739</v>
       </c>
       <c r="M16" s="1">
-        <v>1197.950000</v>
+        <v>1197.95</v>
       </c>
       <c r="N16" s="1">
-        <v>-139.974000</v>
+        <v>-139.97399999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>43796.345261</v>
+        <v>43796.345261000002</v>
       </c>
       <c r="Q16" s="1">
         <v>12.165651</v>
       </c>
       <c r="R16" s="1">
-        <v>1206.000000</v>
+        <v>1206</v>
       </c>
       <c r="S16" s="1">
-        <v>-121.453000</v>
+        <v>-121.453</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>43806.848011</v>
+        <v>43806.848011000002</v>
       </c>
       <c r="V16" s="1">
         <v>12.168569</v>
       </c>
       <c r="W16" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="X16" s="1">
-        <v>-103.611000</v>
+        <v>-103.611</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>43816.996159</v>
+        <v>43816.996159000002</v>
       </c>
       <c r="AA16" s="1">
         <v>12.171388</v>
       </c>
       <c r="AB16" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AC16" s="1">
-        <v>-88.811500</v>
+        <v>-88.811499999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>43827.489024</v>
+        <v>43827.489024000002</v>
       </c>
       <c r="AF16" s="1">
         <v>12.174303</v>
       </c>
       <c r="AG16" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.123300</v>
+        <v>-85.1233</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>43838.043394</v>
@@ -4184,345 +4600,345 @@
         <v>12.177234</v>
       </c>
       <c r="AL16" s="1">
-        <v>1235.270000</v>
+        <v>1235.27</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.390300</v>
+        <v>-89.390299999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>43848.914248</v>
+        <v>43848.914248000001</v>
       </c>
       <c r="AP16" s="1">
         <v>12.180254</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1243.470000</v>
+        <v>1243.47</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.786000</v>
+        <v>-101.786</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>43859.672942</v>
+        <v>43859.672941999997</v>
       </c>
       <c r="AU16" s="1">
         <v>12.183242</v>
       </c>
       <c r="AV16" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.516000</v>
+        <v>-121.51600000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>43870.624631</v>
+        <v>43870.624630999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>12.186285</v>
       </c>
       <c r="BA16" s="1">
-        <v>1262.090000</v>
+        <v>1262.0899999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.294000</v>
+        <v>-139.29400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>43881.607513</v>
+        <v>43881.607513000003</v>
       </c>
       <c r="BE16" s="1">
         <v>12.189335</v>
       </c>
       <c r="BF16" s="1">
-        <v>1302.290000</v>
+        <v>1302.29</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.500000</v>
+        <v>-222.5</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>43892.554250</v>
+        <v>43892.554250000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>12.192376</v>
+        <v>12.192375999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.452000</v>
+        <v>-361.452</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>43903.291148</v>
+        <v>43903.291147999997</v>
       </c>
       <c r="BO16" s="1">
         <v>12.195359</v>
       </c>
       <c r="BP16" s="1">
-        <v>1486.840000</v>
+        <v>1486.84</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-588.199000</v>
+        <v>-588.19899999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>43913.835566</v>
+        <v>43913.835566000002</v>
       </c>
       <c r="BT16" s="1">
         <v>12.198288</v>
       </c>
       <c r="BU16" s="1">
-        <v>1619.360000</v>
+        <v>1619.36</v>
       </c>
       <c r="BV16" s="1">
-        <v>-845.273000</v>
+        <v>-845.27300000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>43924.644912</v>
+        <v>43924.644912000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>12.201290</v>
+        <v>12.20129</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1773.490000</v>
+        <v>1773.49</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1124.600000</v>
+        <v>-1124.5999999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>43937.007167</v>
+        <v>43937.007167000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>12.204724</v>
+        <v>12.204724000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2197.760000</v>
+        <v>2197.7600000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1805.330000</v>
+        <v>-1805.33</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>43765.279298</v>
+        <v>43765.279298000001</v>
       </c>
       <c r="B17" s="1">
         <v>12.157022</v>
       </c>
       <c r="C17" s="1">
-        <v>1155.850000</v>
+        <v>1155.8499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-231.942000</v>
+        <v>-231.94200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>43775.739924</v>
+        <v>43775.739924000001</v>
       </c>
       <c r="G17" s="1">
-        <v>12.159928</v>
+        <v>12.159928000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1172.910000</v>
+        <v>1172.9100000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-196.496000</v>
+        <v>-196.49600000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>43786.236760</v>
+        <v>43786.23676</v>
       </c>
       <c r="L17" s="1">
         <v>12.162844</v>
       </c>
       <c r="M17" s="1">
-        <v>1198.150000</v>
+        <v>1198.1500000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-140.295000</v>
+        <v>-140.29499999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>43796.733134</v>
+        <v>43796.733134000002</v>
       </c>
       <c r="Q17" s="1">
         <v>12.165759</v>
       </c>
       <c r="R17" s="1">
-        <v>1205.970000</v>
+        <v>1205.97</v>
       </c>
       <c r="S17" s="1">
-        <v>-121.422000</v>
+        <v>-121.422</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>43807.191275</v>
+        <v>43807.191274999997</v>
       </c>
       <c r="V17" s="1">
         <v>12.168664</v>
       </c>
       <c r="W17" s="1">
-        <v>1213.890000</v>
+        <v>1213.8900000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-103.564000</v>
+        <v>-103.56399999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>43817.344859</v>
+        <v>43817.344858999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>12.171485</v>
+        <v>12.171485000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1222.340000</v>
+        <v>1222.3399999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-88.812500</v>
+        <v>-88.8125</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>43827.845153</v>
+        <v>43827.845153000002</v>
       </c>
       <c r="AF17" s="1">
         <v>12.174401</v>
       </c>
       <c r="AG17" s="1">
-        <v>1227.660000</v>
+        <v>1227.6600000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.188800</v>
+        <v>-85.188800000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>43838.471937</v>
+        <v>43838.471937000002</v>
       </c>
       <c r="AK17" s="1">
         <v>12.177353</v>
       </c>
       <c r="AL17" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.434100</v>
+        <v>-89.434100000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>43849.210356</v>
+        <v>43849.210356000003</v>
       </c>
       <c r="AP17" s="1">
         <v>12.180336</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.801000</v>
+        <v>-101.801</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>43859.982437</v>
+        <v>43859.982436999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>12.183328</v>
+        <v>12.183327999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1253.600000</v>
+        <v>1253.5999999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.537000</v>
+        <v>-121.53700000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>43870.985718</v>
+        <v>43870.985718000004</v>
       </c>
       <c r="AZ17" s="1">
         <v>12.186385</v>
       </c>
       <c r="BA17" s="1">
-        <v>1262.090000</v>
+        <v>1262.0899999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.259000</v>
+        <v>-139.25899999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>43881.968136</v>
+        <v>43881.968136000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>12.189436</v>
+        <v>12.189436000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.511000</v>
+        <v>-222.511</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>43892.932169</v>
       </c>
       <c r="BJ17" s="1">
-        <v>12.192481</v>
+        <v>12.192481000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1371.970000</v>
+        <v>1371.97</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.351000</v>
+        <v>-361.351</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>43903.711227</v>
@@ -4531,75 +4947,75 @@
         <v>12.195475</v>
       </c>
       <c r="BP17" s="1">
-        <v>1486.840000</v>
+        <v>1486.84</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-588.183000</v>
+        <v>-588.18299999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>43914.247741</v>
+        <v>43914.247740999999</v>
       </c>
       <c r="BT17" s="1">
         <v>12.198402</v>
       </c>
       <c r="BU17" s="1">
-        <v>1619.340000</v>
+        <v>1619.34</v>
       </c>
       <c r="BV17" s="1">
-        <v>-845.289000</v>
+        <v>-845.28899999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>43925.079374</v>
+        <v>43925.079374000001</v>
       </c>
       <c r="BY17" s="1">
         <v>12.201411</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1773.750000</v>
+        <v>1773.75</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1124.630000</v>
+        <v>-1124.6300000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>43937.534414</v>
+        <v>43937.534414000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>12.204871</v>
+        <v>12.204871000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2199.300000</v>
+        <v>2199.3000000000002</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1804.780000</v>
+        <v>-1804.78</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>43765.768353</v>
+        <v>43765.768352999999</v>
       </c>
       <c r="B18" s="1">
-        <v>12.157158</v>
+        <v>12.157158000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1155.760000</v>
+        <v>1155.76</v>
       </c>
       <c r="D18" s="1">
-        <v>-232.236000</v>
+        <v>-232.23599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>43776.117908</v>
@@ -4608,208 +5024,208 @@
         <v>12.160033</v>
       </c>
       <c r="H18" s="1">
-        <v>1172.720000</v>
+        <v>1172.72</v>
       </c>
       <c r="I18" s="1">
-        <v>-195.979000</v>
+        <v>-195.97900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>43786.582010</v>
+        <v>43786.582009999998</v>
       </c>
       <c r="L18" s="1">
         <v>12.162939</v>
       </c>
       <c r="M18" s="1">
-        <v>1197.990000</v>
+        <v>1197.99</v>
       </c>
       <c r="N18" s="1">
-        <v>-140.348000</v>
+        <v>-140.34800000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>43797.081290</v>
+        <v>43797.081290000002</v>
       </c>
       <c r="Q18" s="1">
         <v>12.165856</v>
       </c>
       <c r="R18" s="1">
-        <v>1205.930000</v>
+        <v>1205.93</v>
       </c>
       <c r="S18" s="1">
-        <v>-121.468000</v>
+        <v>-121.468</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>43807.543402</v>
+        <v>43807.543402000003</v>
       </c>
       <c r="V18" s="1">
-        <v>12.168762</v>
+        <v>12.168761999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1213.880000</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-103.403000</v>
+        <v>-103.40300000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>43817.772398</v>
+        <v>43817.772398000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>12.171603</v>
+        <v>12.171602999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1222.600000</v>
+        <v>1222.5999999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-88.505800</v>
+        <v>-88.505799999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>43828.274687</v>
+        <v>43828.274686999997</v>
       </c>
       <c r="AF18" s="1">
         <v>12.174521</v>
       </c>
       <c r="AG18" s="1">
-        <v>1227.610000</v>
+        <v>1227.6099999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.402600</v>
+        <v>-85.402600000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>43838.754162</v>
+        <v>43838.754161999997</v>
       </c>
       <c r="AK18" s="1">
         <v>12.177432</v>
       </c>
       <c r="AL18" s="1">
-        <v>1235.280000</v>
+        <v>1235.28</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.390600</v>
+        <v>-89.390600000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>43849.570914</v>
+        <v>43849.570914000004</v>
       </c>
       <c r="AP18" s="1">
         <v>12.180436</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1243.510000</v>
+        <v>1243.51</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.785000</v>
+        <v>-101.785</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>43860.347492</v>
+        <v>43860.347492000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>12.183430</v>
+        <v>12.18343</v>
       </c>
       <c r="AV18" s="1">
-        <v>1253.620000</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.506000</v>
+        <v>-121.506</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>43871.345287</v>
+        <v>43871.345286999996</v>
       </c>
       <c r="AZ18" s="1">
-        <v>12.186485</v>
+        <v>12.186484999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1262.070000</v>
+        <v>1262.07</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.285000</v>
+        <v>-139.285</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>43882.692795</v>
+        <v>43882.692795000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>12.189637</v>
+        <v>12.189636999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.536000</v>
+        <v>-222.536</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>43893.679157</v>
+        <v>43893.679156999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>12.192689</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.030000</v>
+        <v>1372.03</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.345000</v>
+        <v>-361.34500000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>43904.107034</v>
+        <v>43904.107034000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>12.195585</v>
+        <v>12.195584999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1486.770000</v>
+        <v>1486.77</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-588.256000</v>
+        <v>-588.25599999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>43914.663388</v>
+        <v>43914.663388000001</v>
       </c>
       <c r="BT18" s="1">
         <v>12.198518</v>
       </c>
       <c r="BU18" s="1">
-        <v>1619.330000</v>
+        <v>1619.33</v>
       </c>
       <c r="BV18" s="1">
-        <v>-845.220000</v>
+        <v>-845.22</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>43925.534753</v>
@@ -4818,31 +5234,31 @@
         <v>12.201537</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1773.650000</v>
+        <v>1773.65</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1124.660000</v>
+        <v>-1124.6600000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>43938.362270</v>
+        <v>43938.362269999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>12.205101</v>
+        <v>12.205101000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2198.410000</v>
+        <v>2198.41</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1802.770000</v>
+        <v>-1802.77</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>43766.004449</v>
       </c>
@@ -4850,118 +5266,118 @@
         <v>12.157223</v>
       </c>
       <c r="C19" s="1">
-        <v>1155.820000</v>
+        <v>1155.82</v>
       </c>
       <c r="D19" s="1">
-        <v>-232.158000</v>
+        <v>-232.15799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>43776.459619</v>
+        <v>43776.459619000001</v>
       </c>
       <c r="G19" s="1">
         <v>12.160128</v>
       </c>
       <c r="H19" s="1">
-        <v>1173.340000</v>
+        <v>1173.3399999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-195.937000</v>
+        <v>-195.93700000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>43786.927685</v>
+        <v>43786.927685000002</v>
       </c>
       <c r="L19" s="1">
-        <v>12.163035</v>
+        <v>12.163035000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1197.980000</v>
+        <v>1197.98</v>
       </c>
       <c r="N19" s="1">
-        <v>-140.121000</v>
+        <v>-140.12100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>43797.429480</v>
+        <v>43797.429479999999</v>
       </c>
       <c r="Q19" s="1">
         <v>12.165953</v>
       </c>
       <c r="R19" s="1">
-        <v>1205.900000</v>
+        <v>1205.9000000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-121.523000</v>
+        <v>-121.523</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>43807.966986</v>
+        <v>43807.966985999999</v>
       </c>
       <c r="V19" s="1">
-        <v>12.168880</v>
+        <v>12.16888</v>
       </c>
       <c r="W19" s="1">
-        <v>1213.880000</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-103.473000</v>
+        <v>-103.473</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>43818.052140</v>
+        <v>43818.05214</v>
       </c>
       <c r="AA19" s="1">
         <v>12.171681</v>
       </c>
       <c r="AB19" s="1">
-        <v>1222.410000</v>
+        <v>1222.4100000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-88.793900</v>
+        <v>-88.793899999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>43828.544543</v>
+        <v>43828.544543000004</v>
       </c>
       <c r="AF19" s="1">
-        <v>12.174596</v>
+        <v>12.174595999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1227.700000</v>
+        <v>1227.7</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.268900</v>
+        <v>-85.268900000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>43839.100368</v>
+        <v>43839.100367999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.177528</v>
+        <v>12.177528000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1235.300000</v>
+        <v>1235.3</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.387600</v>
+        <v>-89.387600000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>43849.930514</v>
@@ -4970,28 +5386,28 @@
         <v>12.180536</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1243.500000</v>
+        <v>1243.5</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.789000</v>
+        <v>-101.789</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>43860.711061</v>
+        <v>43860.711061000002</v>
       </c>
       <c r="AU19" s="1">
         <v>12.183531</v>
       </c>
       <c r="AV19" s="1">
-        <v>1253.590000</v>
+        <v>1253.5899999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.518000</v>
+        <v>-121.518</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>43872.062005</v>
@@ -5000,180 +5416,180 @@
         <v>12.186684</v>
       </c>
       <c r="BA19" s="1">
-        <v>1262.070000</v>
+        <v>1262.07</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.267000</v>
+        <v>-139.267</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>43883.077687</v>
+        <v>43883.077686999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>12.189744</v>
+        <v>12.189743999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.536000</v>
+        <v>-222.536</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>43894.055642</v>
+        <v>43894.055641999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>12.192793</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.060000</v>
+        <v>1372.06</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.414000</v>
+        <v>-361.41399999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>43904.529626</v>
+        <v>43904.529626000003</v>
       </c>
       <c r="BO19" s="1">
         <v>12.195703</v>
       </c>
       <c r="BP19" s="1">
-        <v>1486.860000</v>
+        <v>1486.86</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-588.203000</v>
+        <v>-588.20299999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>43915.393499</v>
+        <v>43915.393498999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>12.198720</v>
+        <v>12.19872</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.350000</v>
+        <v>1619.35</v>
       </c>
       <c r="BV19" s="1">
-        <v>-845.150000</v>
+        <v>-845.15</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>43926.302510</v>
+        <v>43926.302510000001</v>
       </c>
       <c r="BY19" s="1">
         <v>12.201751</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1773.620000</v>
+        <v>1773.62</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1124.620000</v>
+        <v>-1124.6199999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>43938.569597</v>
+        <v>43938.569597000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>12.205158</v>
+        <v>12.205158000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2196.440000</v>
+        <v>2196.44</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1803.860000</v>
+        <v>-1803.86</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>43766.348926</v>
+        <v>43766.348925999999</v>
       </c>
       <c r="B20" s="1">
-        <v>12.157319</v>
+        <v>12.157318999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1155.750000</v>
+        <v>1155.75</v>
       </c>
       <c r="D20" s="1">
-        <v>-232.068000</v>
+        <v>-232.06800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>43776.803875</v>
+        <v>43776.803874999998</v>
       </c>
       <c r="G20" s="1">
         <v>12.160223</v>
       </c>
       <c r="H20" s="1">
-        <v>1173.090000</v>
+        <v>1173.0899999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-196.024000</v>
+        <v>-196.024</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>43787.361224</v>
       </c>
       <c r="L20" s="1">
-        <v>12.163156</v>
+        <v>12.163156000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1198.000000</v>
+        <v>1198</v>
       </c>
       <c r="N20" s="1">
-        <v>-140.139000</v>
+        <v>-140.13900000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>43797.851575</v>
+        <v>43797.851575000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>12.166070</v>
+        <v>12.166069999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1205.920000</v>
+        <v>1205.92</v>
       </c>
       <c r="S20" s="1">
-        <v>-121.432000</v>
+        <v>-121.432</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>43808.245737</v>
+        <v>43808.245736999997</v>
       </c>
       <c r="V20" s="1">
-        <v>12.168957</v>
+        <v>12.168957000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1214.010000</v>
+        <v>1214.01</v>
       </c>
       <c r="X20" s="1">
-        <v>-103.542000</v>
+        <v>-103.542</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>43818.399372</v>
@@ -5182,210 +5598,210 @@
         <v>12.171778</v>
       </c>
       <c r="AB20" s="1">
-        <v>1222.360000</v>
+        <v>1222.3599999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-88.745900</v>
+        <v>-88.745900000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>43828.887246</v>
+        <v>43828.887245999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>12.174691</v>
+        <v>12.174690999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1227.690000</v>
+        <v>1227.69</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.263700</v>
+        <v>-85.2637</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>43839.450048</v>
+        <v>43839.450047999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.177625</v>
+        <v>12.177625000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1235.310000</v>
+        <v>1235.31</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.369900</v>
+        <v>-89.369900000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>43850.652193</v>
+        <v>43850.652193000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>12.180737</v>
+        <v>12.180737000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1243.470000</v>
+        <v>1243.47</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.791000</v>
+        <v>-101.791</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>43861.443155</v>
+        <v>43861.443155000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>12.183734</v>
+        <v>12.183733999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1253.590000</v>
+        <v>1253.5899999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.518000</v>
+        <v>-121.518</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>43872.418165</v>
+        <v>43872.418165000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>12.186783</v>
       </c>
       <c r="BA20" s="1">
-        <v>1262.090000</v>
+        <v>1262.0899999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.275000</v>
+        <v>-139.27500000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>43883.440262</v>
+        <v>43883.440261999996</v>
       </c>
       <c r="BE20" s="1">
         <v>12.189845</v>
       </c>
       <c r="BF20" s="1">
-        <v>1302.280000</v>
+        <v>1302.28</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.500000</v>
+        <v>-222.5</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>43894.431575</v>
+        <v>43894.431575000002</v>
       </c>
       <c r="BJ20" s="1">
         <v>12.192898</v>
       </c>
       <c r="BK20" s="1">
-        <v>1371.980000</v>
+        <v>1371.98</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.460000</v>
+        <v>-361.46</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>43905.237453</v>
+        <v>43905.237453000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>12.195899</v>
+        <v>12.195899000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1486.800000</v>
+        <v>1486.8</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-588.236000</v>
+        <v>-588.23599999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>43915.517997</v>
+        <v>43915.517997000003</v>
       </c>
       <c r="BT20" s="1">
         <v>12.198755</v>
       </c>
       <c r="BU20" s="1">
-        <v>1619.340000</v>
+        <v>1619.34</v>
       </c>
       <c r="BV20" s="1">
-        <v>-845.297000</v>
+        <v>-845.29700000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>43926.430973</v>
+        <v>43926.430973000002</v>
       </c>
       <c r="BY20" s="1">
         <v>12.201786</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1773.620000</v>
+        <v>1773.62</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1124.480000</v>
+        <v>-1124.48</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>43939.091358</v>
+        <v>43939.091357999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>12.205303</v>
+        <v>12.205303000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2197.750000</v>
+        <v>2197.75</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1805.520000</v>
+        <v>-1805.52</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>43766.768319</v>
+        <v>43766.768319000003</v>
       </c>
       <c r="B21" s="1">
-        <v>12.157436</v>
+        <v>12.157436000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1155.810000</v>
+        <v>1155.81</v>
       </c>
       <c r="D21" s="1">
-        <v>-232.115000</v>
+        <v>-232.11500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>43777.227923</v>
+        <v>43777.227922999999</v>
       </c>
       <c r="G21" s="1">
-        <v>12.160341</v>
+        <v>12.160341000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1173.310000</v>
+        <v>1173.31</v>
       </c>
       <c r="I21" s="1">
-        <v>-195.985000</v>
+        <v>-195.98500000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>43787.638948</v>
@@ -5394,208 +5810,208 @@
         <v>12.163233</v>
       </c>
       <c r="M21" s="1">
-        <v>1197.850000</v>
+        <v>1197.8499999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-140.222000</v>
+        <v>-140.22200000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>43798.131815</v>
+        <v>43798.131815000001</v>
       </c>
       <c r="Q21" s="1">
         <v>12.166148</v>
       </c>
       <c r="R21" s="1">
-        <v>1205.880000</v>
+        <v>1205.8800000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-121.366000</v>
+        <v>-121.366</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>43808.586025</v>
+        <v>43808.586024999997</v>
       </c>
       <c r="V21" s="1">
-        <v>12.169052</v>
+        <v>12.169052000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1213.860000</v>
+        <v>1213.8599999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-103.424000</v>
+        <v>-103.42400000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>43818.751501</v>
+        <v>43818.751500999999</v>
       </c>
       <c r="AA21" s="1">
         <v>12.171875</v>
       </c>
       <c r="AB21" s="1">
-        <v>1222.370000</v>
+        <v>1222.3699999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-88.820300</v>
+        <v>-88.820300000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>43829.228495</v>
+        <v>43829.228495000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.174786</v>
+        <v>12.174785999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1227.660000</v>
+        <v>1227.6600000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.268700</v>
+        <v>-85.268699999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>43840.146431</v>
+        <v>43840.146431000001</v>
       </c>
       <c r="AK21" s="1">
         <v>12.177818</v>
       </c>
       <c r="AL21" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.419900</v>
+        <v>-89.419899999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>43851.038115</v>
+        <v>43851.038115000003</v>
       </c>
       <c r="AP21" s="1">
         <v>12.180844</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.800000</v>
+        <v>-101.8</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>43861.804778</v>
+        <v>43861.804777999998</v>
       </c>
       <c r="AU21" s="1">
         <v>12.183835</v>
       </c>
       <c r="AV21" s="1">
-        <v>1253.590000</v>
+        <v>1253.5899999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.533000</v>
+        <v>-121.533</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>43872.779748</v>
+        <v>43872.779748000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.186883</v>
       </c>
       <c r="BA21" s="1">
-        <v>1262.090000</v>
+        <v>1262.0899999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.279000</v>
+        <v>-139.279</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>43884.117765</v>
+        <v>43884.117765000003</v>
       </c>
       <c r="BE21" s="1">
         <v>12.190033</v>
       </c>
       <c r="BF21" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.502000</v>
+        <v>-222.50200000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>43895.130936</v>
+        <v>43895.130936000001</v>
       </c>
       <c r="BJ21" s="1">
         <v>12.193092</v>
       </c>
       <c r="BK21" s="1">
-        <v>1371.980000</v>
+        <v>1371.98</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.336000</v>
+        <v>-361.33600000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>43905.361913</v>
+        <v>43905.361913000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>12.195934</v>
+        <v>12.195933999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1486.800000</v>
+        <v>1486.8</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-588.220000</v>
+        <v>-588.22</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>43915.957947</v>
+        <v>43915.957947000003</v>
       </c>
       <c r="BT21" s="1">
         <v>12.198877</v>
       </c>
       <c r="BU21" s="1">
-        <v>1619.310000</v>
+        <v>1619.31</v>
       </c>
       <c r="BV21" s="1">
-        <v>-845.367000</v>
+        <v>-845.36699999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>43926.853104</v>
+        <v>43926.853104000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>12.201904</v>
+        <v>12.201904000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1773.490000</v>
+        <v>1773.49</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1124.480000</v>
+        <v>-1124.48</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>43939.607227</v>
@@ -5604,195 +6020,195 @@
         <v>12.205446</v>
       </c>
       <c r="CE21" s="1">
-        <v>2199.110000</v>
+        <v>2199.11</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1803.800000</v>
+        <v>-1803.8</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>43767.046049</v>
+        <v>43767.046048999997</v>
       </c>
       <c r="B22" s="1">
         <v>12.157513</v>
       </c>
       <c r="C22" s="1">
-        <v>1155.690000</v>
+        <v>1155.69</v>
       </c>
       <c r="D22" s="1">
-        <v>-232.225000</v>
+        <v>-232.22499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>43777.502248</v>
+        <v>43777.502247999997</v>
       </c>
       <c r="G22" s="1">
-        <v>12.160417</v>
+        <v>12.160417000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.950000</v>
+        <v>1172.95</v>
       </c>
       <c r="I22" s="1">
-        <v>-195.982000</v>
+        <v>-195.982</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>43787.985156</v>
+        <v>43787.985156000002</v>
       </c>
       <c r="L22" s="1">
-        <v>12.163329</v>
+        <v>12.163328999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1198.160000</v>
+        <v>1198.1600000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-140.258000</v>
+        <v>-140.25800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>43798.478519</v>
+        <v>43798.478518999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>12.166244</v>
+        <v>12.166244000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1205.980000</v>
+        <v>1205.98</v>
       </c>
       <c r="S22" s="1">
-        <v>-121.370000</v>
+        <v>-121.37</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>43808.931242</v>
+        <v>43808.931241999999</v>
       </c>
       <c r="V22" s="1">
         <v>12.169148</v>
       </c>
       <c r="W22" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="X22" s="1">
-        <v>-103.615000</v>
+        <v>-103.61499999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>43819.446917</v>
+        <v>43819.446917000001</v>
       </c>
       <c r="AA22" s="1">
         <v>12.172069</v>
       </c>
       <c r="AB22" s="1">
-        <v>1222.450000</v>
+        <v>1222.45</v>
       </c>
       <c r="AC22" s="1">
-        <v>-88.819200</v>
+        <v>-88.819199999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>43829.915950</v>
+        <v>43829.915950000002</v>
       </c>
       <c r="AF22" s="1">
         <v>12.174977</v>
       </c>
       <c r="AG22" s="1">
-        <v>1227.640000</v>
+        <v>1227.6400000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.246900</v>
+        <v>-85.246899999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>43840.492246</v>
+        <v>43840.492246000002</v>
       </c>
       <c r="AK22" s="1">
         <v>12.177915</v>
       </c>
       <c r="AL22" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.358000</v>
+        <v>-89.358000000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>43851.396193</v>
       </c>
       <c r="AP22" s="1">
-        <v>12.180943</v>
+        <v>12.180942999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1243.520000</v>
+        <v>1243.52</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.793000</v>
+        <v>-101.79300000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>43862.170290</v>
+        <v>43862.170290000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>12.183936</v>
+        <v>12.183935999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1253.590000</v>
+        <v>1253.5899999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.531000</v>
+        <v>-121.53100000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>43873.445876</v>
+        <v>43873.445875999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>12.187068</v>
       </c>
       <c r="BA22" s="1">
-        <v>1262.110000</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.290000</v>
+        <v>-139.29</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>43884.552260</v>
+        <v>43884.552259999997</v>
       </c>
       <c r="BE22" s="1">
         <v>12.190153</v>
       </c>
       <c r="BF22" s="1">
-        <v>1302.290000</v>
+        <v>1302.29</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.510000</v>
+        <v>-222.51</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>43895.560997</v>
@@ -5801,270 +6217,270 @@
         <v>12.193211</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.070000</v>
+        <v>1372.07</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.409000</v>
+        <v>-361.40899999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>43905.773629</v>
+        <v>43905.773629000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.196048</v>
+        <v>12.196047999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1486.760000</v>
+        <v>1486.76</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-588.172000</v>
+        <v>-588.17200000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>43916.383515</v>
+        <v>43916.383515000001</v>
       </c>
       <c r="BT22" s="1">
         <v>12.198995</v>
       </c>
       <c r="BU22" s="1">
-        <v>1619.410000</v>
+        <v>1619.41</v>
       </c>
       <c r="BV22" s="1">
-        <v>-845.304000</v>
+        <v>-845.30399999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>43927.279169</v>
+        <v>43927.279169000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>12.202022</v>
+        <v>12.202021999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1773.540000</v>
+        <v>1773.54</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1124.540000</v>
+        <v>-1124.54</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>43940.126010</v>
+        <v>43940.12601</v>
       </c>
       <c r="CD22" s="1">
         <v>12.205591</v>
       </c>
       <c r="CE22" s="1">
-        <v>2199.290000</v>
+        <v>2199.29</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1804.050000</v>
+        <v>-1804.05</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>43767.386800</v>
+        <v>43767.3868</v>
       </c>
       <c r="B23" s="1">
         <v>12.157607</v>
       </c>
       <c r="C23" s="1">
-        <v>1155.740000</v>
+        <v>1155.74</v>
       </c>
       <c r="D23" s="1">
-        <v>-232.123000</v>
+        <v>-232.12299999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>43777.845937</v>
+        <v>43777.845936999998</v>
       </c>
       <c r="G23" s="1">
         <v>12.160513</v>
       </c>
       <c r="H23" s="1">
-        <v>1173.460000</v>
+        <v>1173.46</v>
       </c>
       <c r="I23" s="1">
-        <v>-196.547000</v>
+        <v>-196.547</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>43788.331862</v>
+        <v>43788.331861999999</v>
       </c>
       <c r="L23" s="1">
-        <v>12.163426</v>
+        <v>12.163425999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1198.100000</v>
+        <v>1198.0999999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-140.137000</v>
+        <v>-140.137</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>43799.177878</v>
+        <v>43799.177878000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.166438</v>
+        <v>12.166437999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1205.980000</v>
+        <v>1205.98</v>
       </c>
       <c r="S23" s="1">
-        <v>-121.474000</v>
+        <v>-121.474</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>43809.616219</v>
+        <v>43809.616219000003</v>
       </c>
       <c r="V23" s="1">
         <v>12.169338</v>
       </c>
       <c r="W23" s="1">
-        <v>1213.750000</v>
+        <v>1213.75</v>
       </c>
       <c r="X23" s="1">
-        <v>-103.340000</v>
+        <v>-103.34</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>43819.796075</v>
+        <v>43819.796074999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.172166</v>
+        <v>12.172166000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1222.320000</v>
+        <v>1222.32</v>
       </c>
       <c r="AC23" s="1">
-        <v>-88.811300</v>
+        <v>-88.811300000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>43830.265628</v>
+        <v>43830.265628000001</v>
       </c>
       <c r="AF23" s="1">
         <v>12.175074</v>
       </c>
       <c r="AG23" s="1">
-        <v>1227.600000</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.308500</v>
+        <v>-85.308499999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>43840.836862</v>
+        <v>43840.836861999996</v>
       </c>
       <c r="AK23" s="1">
-        <v>12.178010</v>
+        <v>12.17801</v>
       </c>
       <c r="AL23" s="1">
-        <v>1235.290000</v>
+        <v>1235.29</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.383000</v>
+        <v>-89.382999999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>43852.071287</v>
+        <v>43852.071286999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>12.181131</v>
+        <v>12.181131000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.803000</v>
+        <v>-101.803</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>43862.851793</v>
+        <v>43862.851793000002</v>
       </c>
       <c r="AU23" s="1">
         <v>12.184125</v>
       </c>
       <c r="AV23" s="1">
-        <v>1253.590000</v>
+        <v>1253.5899999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.501000</v>
+        <v>-121.501</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>43873.865458</v>
       </c>
       <c r="AZ23" s="1">
-        <v>12.187185</v>
+        <v>12.187184999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1262.080000</v>
+        <v>1262.08</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.273000</v>
+        <v>-139.273</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>43884.912887</v>
+        <v>43884.912886999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>12.190254</v>
+        <v>12.190253999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.497000</v>
+        <v>-222.49700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>43895.936439</v>
+        <v>43895.936438999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>12.193316</v>
+        <v>12.193315999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1371.920000</v>
+        <v>1371.92</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.468000</v>
+        <v>-361.46800000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>43906.170392</v>
@@ -6073,13 +6489,13 @@
         <v>12.196158</v>
       </c>
       <c r="BP23" s="1">
-        <v>1486.820000</v>
+        <v>1486.82</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-588.259000</v>
+        <v>-588.25900000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>43916.809082</v>
@@ -6088,13 +6504,13 @@
         <v>12.199114</v>
       </c>
       <c r="BU23" s="1">
-        <v>1619.380000</v>
+        <v>1619.38</v>
       </c>
       <c r="BV23" s="1">
-        <v>-845.286000</v>
+        <v>-845.28599999999994</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>43927.715117</v>
@@ -6103,634 +6519,634 @@
         <v>12.202143</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1773.500000</v>
+        <v>1773.5</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1124.450000</v>
+        <v>-1124.45</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>43940.676605</v>
+        <v>43940.676605000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.205744</v>
+        <v>12.205743999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2198.290000</v>
+        <v>2198.29</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1805.660000</v>
+        <v>-1805.66</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>43767.727055</v>
+        <v>43767.727055000003</v>
       </c>
       <c r="B24" s="1">
         <v>12.157702</v>
       </c>
       <c r="C24" s="1">
-        <v>1155.580000</v>
+        <v>1155.58</v>
       </c>
       <c r="D24" s="1">
-        <v>-231.815000</v>
+        <v>-231.815</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>43778.189665</v>
+        <v>43778.189664999998</v>
       </c>
       <c r="G24" s="1">
         <v>12.160608</v>
       </c>
       <c r="H24" s="1">
-        <v>1173.550000</v>
+        <v>1173.55</v>
       </c>
       <c r="I24" s="1">
-        <v>-196.110000</v>
+        <v>-196.11</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>43789.027284</v>
+        <v>43789.027284000003</v>
       </c>
       <c r="L24" s="1">
-        <v>12.163619</v>
+        <v>12.163619000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1198.270000</v>
+        <v>1198.27</v>
       </c>
       <c r="N24" s="1">
-        <v>-140.357000</v>
+        <v>-140.357</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>43799.523589</v>
+        <v>43799.523588999997</v>
       </c>
       <c r="Q24" s="1">
         <v>12.166534</v>
       </c>
       <c r="R24" s="1">
-        <v>1205.900000</v>
+        <v>1205.9000000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-121.457000</v>
+        <v>-121.45699999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>43809.960408</v>
+        <v>43809.960407999999</v>
       </c>
       <c r="V24" s="1">
         <v>12.169433</v>
       </c>
       <c r="W24" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="X24" s="1">
-        <v>-103.445000</v>
+        <v>-103.44499999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>43820.145289</v>
       </c>
       <c r="AA24" s="1">
-        <v>12.172263</v>
+        <v>12.172262999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1222.410000</v>
+        <v>1222.4100000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-88.748900</v>
+        <v>-88.748900000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>43830.623741</v>
+        <v>43830.623741000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>12.175173</v>
+        <v>12.175172999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1227.660000</v>
+        <v>1227.6600000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.382000</v>
+        <v>-85.382000000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>43841.491590</v>
+        <v>43841.491589999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>12.178192</v>
+        <v>12.178191999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.408300</v>
+        <v>-89.408299999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>43852.509246</v>
+        <v>43852.509246000001</v>
       </c>
       <c r="AP24" s="1">
         <v>12.181253</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.778000</v>
+        <v>-101.77800000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>43863.264960</v>
+        <v>43863.26496</v>
       </c>
       <c r="AU24" s="1">
-        <v>12.184240</v>
+        <v>12.184240000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1253.600000</v>
+        <v>1253.5999999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.519000</v>
+        <v>-121.51900000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>43874.240932</v>
+        <v>43874.240932000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.187289</v>
       </c>
       <c r="BA24" s="1">
-        <v>1262.080000</v>
+        <v>1262.08</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.292000</v>
+        <v>-139.292</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>43885.273443</v>
+        <v>43885.273442999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>12.190354</v>
+        <v>12.190353999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1302.290000</v>
+        <v>1302.29</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.512000</v>
+        <v>-222.512</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>43896.311413</v>
+        <v>43896.311413000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>12.193420</v>
+        <v>12.19342</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.040000</v>
+        <v>1372.04</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.348000</v>
+        <v>-361.34800000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>43906.593976</v>
+        <v>43906.593975999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>12.196276</v>
+        <v>12.196275999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1486.830000</v>
+        <v>1486.83</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-588.237000</v>
+        <v>-588.23699999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>43917.226218</v>
+        <v>43917.226218000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>12.199230</v>
+        <v>12.19923</v>
       </c>
       <c r="BU24" s="1">
-        <v>1619.300000</v>
+        <v>1619.3</v>
       </c>
       <c r="BV24" s="1">
-        <v>-845.281000</v>
+        <v>-845.28099999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>43928.145148</v>
+        <v>43928.145148000003</v>
       </c>
       <c r="BY24" s="1">
         <v>12.202263</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1773.400000</v>
+        <v>1773.4</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1124.520000</v>
+        <v>-1124.52</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>43941.207785</v>
+        <v>43941.207784999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>12.205891</v>
+        <v>12.205890999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2199.180000</v>
+        <v>2199.1799999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1803.780000</v>
+        <v>-1803.78</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>43768.409055</v>
+        <v>43768.409054999996</v>
       </c>
       <c r="B25" s="1">
-        <v>12.157891</v>
+        <v>12.157890999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1155.660000</v>
+        <v>1155.6600000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-232.065000</v>
+        <v>-232.065</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>43778.881170</v>
+        <v>43778.881170000001</v>
       </c>
       <c r="G25" s="1">
-        <v>12.160800</v>
+        <v>12.1608</v>
       </c>
       <c r="H25" s="1">
-        <v>1172.850000</v>
+        <v>1172.8499999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-196.255000</v>
+        <v>-196.255</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>43789.372962</v>
+        <v>43789.372962000001</v>
       </c>
       <c r="L25" s="1">
         <v>12.163715</v>
       </c>
       <c r="M25" s="1">
-        <v>1197.910000</v>
+        <v>1197.9100000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-140.169000</v>
+        <v>-140.16900000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>43799.878229</v>
+        <v>43799.878229000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>12.166633</v>
+        <v>12.166632999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1205.930000</v>
+        <v>1205.93</v>
       </c>
       <c r="S25" s="1">
-        <v>-121.445000</v>
+        <v>-121.44499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>43810.304662</v>
+        <v>43810.304662000002</v>
       </c>
       <c r="V25" s="1">
-        <v>12.169529</v>
+        <v>12.169529000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1213.810000</v>
+        <v>1213.81</v>
       </c>
       <c r="X25" s="1">
-        <v>-103.441000</v>
+        <v>-103.441</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>43820.810637</v>
+        <v>43820.810637000002</v>
       </c>
       <c r="AA25" s="1">
         <v>12.172447</v>
       </c>
       <c r="AB25" s="1">
-        <v>1222.480000</v>
+        <v>1222.48</v>
       </c>
       <c r="AC25" s="1">
-        <v>-88.718500</v>
+        <v>-88.718500000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>43831.315660</v>
+        <v>43831.31566</v>
       </c>
       <c r="AF25" s="1">
-        <v>12.175365</v>
+        <v>12.175364999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1227.660000</v>
+        <v>1227.6600000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.257600</v>
+        <v>-85.257599999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>43841.897341</v>
+        <v>43841.897341000004</v>
       </c>
       <c r="AK25" s="1">
         <v>12.178305</v>
       </c>
       <c r="AL25" s="1">
-        <v>1235.280000</v>
+        <v>1235.28</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.400200</v>
+        <v>-89.400199999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>43852.866830</v>
+        <v>43852.866829999999</v>
       </c>
       <c r="AP25" s="1">
         <v>12.181352</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1243.480000</v>
+        <v>1243.48</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.792000</v>
+        <v>-101.792</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>43863.628530</v>
+        <v>43863.628530000002</v>
       </c>
       <c r="AU25" s="1">
         <v>12.184341</v>
       </c>
       <c r="AV25" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.537000</v>
+        <v>-121.53700000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>43874.601521</v>
+        <v>43874.601520999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>12.187389</v>
       </c>
       <c r="BA25" s="1">
-        <v>1262.070000</v>
+        <v>1262.07</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.286000</v>
+        <v>-139.286</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>43885.701988</v>
+        <v>43885.701988000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>12.190473</v>
+        <v>12.190473000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1302.280000</v>
+        <v>1302.28</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.529000</v>
+        <v>-222.529</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>43896.734996</v>
+        <v>43896.734995999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>12.193537</v>
+        <v>12.193536999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.020000</v>
+        <v>1372.02</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.333000</v>
+        <v>-361.33300000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>43906.988295</v>
+        <v>43906.988295000003</v>
       </c>
       <c r="BO25" s="1">
         <v>12.196386</v>
       </c>
       <c r="BP25" s="1">
-        <v>1486.810000</v>
+        <v>1486.81</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-588.182000</v>
+        <v>-588.18200000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>43917.655293</v>
+        <v>43917.655293000003</v>
       </c>
       <c r="BT25" s="1">
         <v>12.199349</v>
       </c>
       <c r="BU25" s="1">
-        <v>1619.390000</v>
+        <v>1619.39</v>
       </c>
       <c r="BV25" s="1">
-        <v>-845.316000</v>
+        <v>-845.31600000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>43928.569723</v>
+        <v>43928.569723000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>12.202380</v>
+        <v>12.20238</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1773.620000</v>
+        <v>1773.62</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1124.680000</v>
+        <v>-1124.68</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>43941.724148</v>
+        <v>43941.724148000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>12.206034</v>
+        <v>12.206034000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2197.000000</v>
+        <v>2197</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1803.070000</v>
+        <v>-1803.07</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>43768.755757</v>
+        <v>43768.755756999999</v>
       </c>
       <c r="B26" s="1">
         <v>12.157988</v>
       </c>
       <c r="C26" s="1">
-        <v>1155.760000</v>
+        <v>1155.76</v>
       </c>
       <c r="D26" s="1">
-        <v>-232.252000</v>
+        <v>-232.25200000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>43779.213408</v>
+        <v>43779.213408000003</v>
       </c>
       <c r="G26" s="1">
         <v>12.160893</v>
       </c>
       <c r="H26" s="1">
-        <v>1173.340000</v>
+        <v>1173.3399999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-196.062000</v>
+        <v>-196.06200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>43789.720161</v>
+        <v>43789.720160999997</v>
       </c>
       <c r="L26" s="1">
-        <v>12.163811</v>
+        <v>12.163811000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1198.250000</v>
+        <v>1198.25</v>
       </c>
       <c r="N26" s="1">
-        <v>-139.936000</v>
+        <v>-139.93600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>43800.547827</v>
+        <v>43800.547827000002</v>
       </c>
       <c r="Q26" s="1">
         <v>12.166819</v>
       </c>
       <c r="R26" s="1">
-        <v>1205.890000</v>
+        <v>1205.8900000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-121.367000</v>
+        <v>-121.367</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>43810.968773</v>
+        <v>43810.968773000001</v>
       </c>
       <c r="V26" s="1">
-        <v>12.169714</v>
+        <v>12.169714000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1213.800000</v>
+        <v>1213.8</v>
       </c>
       <c r="X26" s="1">
-        <v>-103.459000</v>
+        <v>-103.459</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>43821.189833</v>
+        <v>43821.189832999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>12.172553</v>
+        <v>12.172553000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1222.470000</v>
+        <v>1222.47</v>
       </c>
       <c r="AC26" s="1">
-        <v>-88.796800</v>
+        <v>-88.796800000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>43831.652939</v>
@@ -6739,28 +7155,28 @@
         <v>12.175459</v>
       </c>
       <c r="AG26" s="1">
-        <v>1227.670000</v>
+        <v>1227.67</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.272300</v>
+        <v>-85.272300000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>43842.236599</v>
+        <v>43842.236599000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>12.178399</v>
+        <v>12.178399000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1235.290000</v>
+        <v>1235.29</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.390500</v>
+        <v>-89.390500000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>43853.227454</v>
@@ -6769,135 +7185,136 @@
         <v>12.181452</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.785000</v>
+        <v>-101.785</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>43864.008959</v>
+        <v>43864.008958999999</v>
       </c>
       <c r="AU26" s="1">
         <v>12.184447</v>
       </c>
       <c r="AV26" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.500000</v>
+        <v>-121.5</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>43875.020145</v>
+        <v>43875.020145000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>12.187506</v>
+        <v>12.187506000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1262.080000</v>
+        <v>1262.08</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.290000</v>
+        <v>-139.29</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>43885.992644</v>
+        <v>43885.992643999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>12.190554</v>
+        <v>12.190554000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.521000</v>
+        <v>-222.52099999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>43897.103028</v>
+        <v>43897.103027999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>12.193640</v>
+        <v>12.19364</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.050000</v>
+        <v>1372.05</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.388000</v>
+        <v>-361.38799999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>43907.410390</v>
+        <v>43907.410389999997</v>
       </c>
       <c r="BO26" s="1">
         <v>12.196503</v>
       </c>
       <c r="BP26" s="1">
-        <v>1486.830000</v>
+        <v>1486.83</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-588.229000</v>
+        <v>-588.22900000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>43918.068766</v>
+        <v>43918.068765999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>12.199464</v>
+        <v>12.199464000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1619.360000</v>
+        <v>1619.36</v>
       </c>
       <c r="BV26" s="1">
-        <v>-845.336000</v>
+        <v>-845.33600000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>43928.990826</v>
+        <v>43928.990826000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>12.202497</v>
+        <v>12.202496999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1773.630000</v>
+        <v>1773.63</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1124.530000</v>
+        <v>-1124.53</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>43942.242972</v>
       </c>
       <c r="CD26" s="1">
-        <v>12.206179</v>
+        <v>12.206179000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2196.650000</v>
+        <v>2196.65</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1804.900000</v>
+        <v>-1804.9</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>